--- a/source_data/Qual_7_data.xlsx
+++ b/source_data/Qual_7_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy20210218_reformat&amp;upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B0669-91DB-4411-924B-6CB2B69CCBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA7D37-CBEA-4A85-B2C8-9E05C4C3D756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,9 +608,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>SERIES_DESC</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1238,9 +1235,6 @@
     <t>INDICATOR_DESC</t>
   </si>
   <si>
-    <t>SERIES_MINSET</t>
-  </si>
-  <si>
     <t>Existence of law on gender statistics</t>
   </si>
   <si>
@@ -1335,6 +1329,12 @@
   </si>
   <si>
     <t>SOURCE_YEAR</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES</t>
+  </si>
+  <si>
+    <t>MINSET_SERIES_DESC</t>
   </si>
 </sst>
 </file>
@@ -2189,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,49 +2214,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D2" s="2">
         <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I2" s="2">
         <v>66.026881979999999</v>
@@ -2291,7 +2291,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L2" s="1">
         <v>21</v>
@@ -2312,13 +2312,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D3" s="2">
         <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F3" s="2">
         <v>144</v>
@@ -2327,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" s="2">
         <v>80.704896539999993</v>
@@ -2336,7 +2336,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L3" s="1">
         <v>21</v>
@@ -2357,13 +2357,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D4" s="2">
         <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>524</v>
@@ -2372,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="2">
         <v>83.94678863</v>
@@ -2381,7 +2381,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L4" s="1">
         <v>21</v>
@@ -2402,13 +2402,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="2">
         <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>56</v>
@@ -2417,7 +2417,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="2">
         <v>4.6609764560000002</v>
@@ -2426,7 +2426,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L5" s="1">
         <v>21</v>
@@ -2447,13 +2447,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" s="2">
         <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2">
         <v>276</v>
@@ -2462,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="2">
         <v>10.3806066</v>
@@ -2471,7 +2471,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L6" s="1">
         <v>21</v>
@@ -2492,13 +2492,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D7" s="2">
         <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
@@ -2507,7 +2507,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="2">
         <v>22.583078270000001</v>
@@ -2516,7 +2516,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L7" s="1">
         <v>21</v>
@@ -2537,13 +2537,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D8" s="2">
         <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2">
         <v>304</v>
@@ -2552,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I8" s="2">
         <v>-41.393713159999997</v>
@@ -2561,7 +2561,7 @@
         <v>74.756256809999996</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L8" s="1">
         <v>21</v>
@@ -2582,13 +2582,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" s="2">
         <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F9" s="2">
         <v>380</v>
@@ -2597,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I9" s="2">
         <v>12.570224270000001</v>
@@ -2606,7 +2606,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L9" s="1">
         <v>21</v>
@@ -2627,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" s="2">
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2">
         <v>438</v>
@@ -2642,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I10" s="2">
         <v>9.5529850189999994</v>
@@ -2651,7 +2651,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L10" s="1">
         <v>21</v>
@@ -2672,13 +2672,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D11" s="2">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2">
         <v>442</v>
@@ -2687,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" s="2">
         <v>6.0926565630000002</v>
@@ -2696,7 +2696,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L11" s="1">
         <v>21</v>
@@ -2717,13 +2717,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D12" s="2">
         <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F12" s="2">
         <v>643</v>
@@ -2732,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" s="2">
         <v>99.014049259999993</v>
@@ -2741,7 +2741,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L12" s="1">
         <v>21</v>
@@ -2762,13 +2762,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D13" s="2">
         <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F13" s="2">
         <v>724</v>
@@ -2777,7 +2777,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="2">
         <v>-3.5540782960000001</v>
@@ -2786,7 +2786,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L13" s="1">
         <v>21</v>
@@ -2807,13 +2807,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D14" s="2">
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F14" s="2">
         <v>840</v>
@@ -2822,7 +2822,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I14" s="2">
         <v>-99.138303109999995</v>
@@ -2831,7 +2831,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L14" s="1">
         <v>21</v>
@@ -2852,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D15" s="2">
         <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F15" s="2">
         <v>434</v>
@@ -2867,7 +2867,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I15" s="2">
         <v>18.029598499999999</v>
@@ -2876,7 +2876,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L15" s="1">
         <v>21</v>
@@ -2897,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D16" s="2">
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F16" s="2">
         <v>316</v>
@@ -2912,7 +2912,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I16" s="2">
         <v>144.70293050000001</v>
@@ -2921,7 +2921,7 @@
         <v>13.354854039999999</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L16" s="1">
         <v>21</v>
@@ -2942,13 +2942,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D17" s="2">
         <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F17" s="2">
         <v>520</v>
@@ -2957,7 +2957,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" s="2">
         <v>166.92312999999999</v>
@@ -2966,7 +2966,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L17" s="1">
         <v>21</v>
@@ -2987,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D18" s="2">
         <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F18" s="2">
         <v>585</v>
@@ -3002,7 +3002,7 @@
         <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I18" s="2">
         <v>134.57338780000001</v>
@@ -3011,7 +3011,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L18" s="1">
         <v>21</v>
@@ -3032,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D19" s="2">
         <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F19" s="2">
         <v>24</v>
@@ -3047,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I19" s="2">
         <v>17.578170620000002</v>
@@ -3077,13 +3077,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D20" s="2">
         <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F20" s="2">
         <v>108</v>
@@ -3092,7 +3092,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I20" s="2">
         <v>29.890809919999999</v>
@@ -3122,13 +3122,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D21" s="2">
         <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F21" s="2">
         <v>132</v>
@@ -3137,7 +3137,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I21" s="2">
         <v>-23.63544151</v>
@@ -3167,13 +3167,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D22" s="2">
         <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F22" s="2">
         <v>174</v>
@@ -3182,7 +3182,7 @@
         <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I22" s="2">
         <v>43.342345649999999</v>
@@ -3212,13 +3212,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D23" s="2">
         <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F23" s="2">
         <v>226</v>
@@ -3227,7 +3227,7 @@
         <v>88</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I23" s="2">
         <v>10.46535826</v>
@@ -3257,13 +3257,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D24" s="2">
         <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F24" s="2">
         <v>266</v>
@@ -3272,7 +3272,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I24" s="2">
         <v>11.787277469999999</v>
@@ -3302,13 +3302,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D25" s="2">
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F25" s="2">
         <v>430</v>
@@ -3317,7 +3317,7 @@
         <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I25" s="2">
         <v>-9.3118790380000007</v>
@@ -3347,13 +3347,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D26" s="2">
         <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F26" s="2">
         <v>450</v>
@@ -3362,7 +3362,7 @@
         <v>99</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I26" s="2">
         <v>46.698233899999998</v>
@@ -3392,13 +3392,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D27" s="2">
         <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2">
         <v>454</v>
@@ -3407,7 +3407,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I27" s="2">
         <v>33.488462499999997</v>
@@ -3437,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D28" s="2">
         <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F28" s="2">
         <v>624</v>
@@ -3452,7 +3452,7 @@
         <v>108</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I28" s="2">
         <v>-14.40182514</v>
@@ -3482,13 +3482,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D29" s="2">
         <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F29" s="2">
         <v>678</v>
@@ -3497,7 +3497,7 @@
         <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I29" s="2">
         <v>6.6097722650000001</v>
@@ -3527,22 +3527,22 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D30" s="2">
         <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F30" s="2">
         <v>748</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I30" s="2">
         <v>31.501492880000001</v>
@@ -3572,13 +3572,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D31" s="2">
         <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F31" s="2">
         <v>32</v>
@@ -3587,7 +3587,7 @@
         <v>124</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I31" s="2">
         <v>-65.145632739999996</v>
@@ -3617,13 +3617,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D32" s="2">
         <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F32" s="2">
         <v>68</v>
@@ -3632,7 +3632,7 @@
         <v>127</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I32" s="2">
         <v>-64.662242840000005</v>
@@ -3662,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D33" s="2">
         <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F33" s="2">
         <v>76</v>
@@ -3677,7 +3677,7 @@
         <v>128</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I33" s="2">
         <v>-53.08432878</v>
@@ -3707,13 +3707,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D34" s="2">
         <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F34" s="2">
         <v>152</v>
@@ -3722,7 +3722,7 @@
         <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I34" s="2">
         <v>-71.230290190000005</v>
@@ -3752,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D35" s="2">
         <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F35" s="2">
         <v>170</v>
@@ -3767,7 +3767,7 @@
         <v>132</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I35" s="2">
         <v>-73.074467510000005</v>
@@ -3797,13 +3797,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D36" s="2">
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F36" s="2">
         <v>188</v>
@@ -3812,7 +3812,7 @@
         <v>133</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I36" s="2">
         <v>-84.197127820000006</v>
@@ -3842,13 +3842,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D37" s="2">
         <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F37" s="2">
         <v>192</v>
@@ -3857,7 +3857,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I37" s="2">
         <v>-79.544601439999994</v>
@@ -3887,13 +3887,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D38" s="2">
         <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F38" s="2">
         <v>214</v>
@@ -3902,7 +3902,7 @@
         <v>136</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I38" s="2">
         <v>-70.498475760000005</v>
@@ -3932,13 +3932,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D39" s="2">
         <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F39" s="2">
         <v>218</v>
@@ -3947,7 +3947,7 @@
         <v>137</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I39" s="2">
         <v>-78.37005241</v>
@@ -3977,13 +3977,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D40" s="2">
         <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F40" s="2">
         <v>222</v>
@@ -3992,7 +3992,7 @@
         <v>138</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I40" s="2">
         <v>-88.868629949999999</v>
@@ -4022,13 +4022,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D41" s="2">
         <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F41" s="2">
         <v>308</v>
@@ -4037,7 +4037,7 @@
         <v>139</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I41" s="2">
         <v>-61.682485679999999</v>
@@ -4067,13 +4067,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D42" s="2">
         <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F42" s="2">
         <v>320</v>
@@ -4082,7 +4082,7 @@
         <v>140</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I42" s="2">
         <v>-91.231274600000006</v>
@@ -4112,13 +4112,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D43" s="2">
         <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F43" s="2">
         <v>332</v>
@@ -4127,7 +4127,7 @@
         <v>142</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I43" s="2">
         <v>-72.336409579999994</v>
@@ -4157,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D44" s="2">
         <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F44" s="2">
         <v>340</v>
@@ -4172,7 +4172,7 @@
         <v>143</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I44" s="2">
         <v>-86.599743810000007</v>
@@ -4202,13 +4202,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D45" s="2">
         <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F45" s="2">
         <v>484</v>
@@ -4217,7 +4217,7 @@
         <v>145</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I45" s="2">
         <v>-102.5148166</v>
@@ -4247,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D46" s="2">
         <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F46" s="2">
         <v>558</v>
@@ -4262,7 +4262,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I46" s="2">
         <v>-85.030603150000005</v>
@@ -4292,13 +4292,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D47" s="2">
         <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F47" s="2">
         <v>591</v>
@@ -4307,7 +4307,7 @@
         <v>147</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I47" s="2">
         <v>-81.266166229999996</v>
@@ -4337,13 +4337,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D48" s="2">
         <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F48" s="2">
         <v>600</v>
@@ -4352,7 +4352,7 @@
         <v>148</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I48" s="2">
         <v>-60.548542249999997</v>
@@ -4382,13 +4382,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D49" s="2">
         <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F49" s="2">
         <v>604</v>
@@ -4397,7 +4397,7 @@
         <v>149</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I49" s="2">
         <v>-71.820932769999999</v>
@@ -4427,13 +4427,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D50" s="2">
         <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F50" s="2">
         <v>740</v>
@@ -4442,7 +4442,7 @@
         <v>153</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I50" s="2">
         <v>-55.906263940000002</v>
@@ -4472,13 +4472,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D51" s="2">
         <v>67</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F51" s="2">
         <v>780</v>
@@ -4487,7 +4487,7 @@
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I51" s="2">
         <v>-61.293895040000002</v>
@@ -4517,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D52" s="2">
         <v>67</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F52" s="2">
         <v>858</v>
@@ -4532,7 +4532,7 @@
         <v>155</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I52" s="2">
         <v>-56.013870249999997</v>
@@ -4562,13 +4562,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D53" s="2">
         <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F53" s="2">
         <v>862</v>
@@ -4577,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I53" s="2">
         <v>-66.156420839999996</v>
@@ -4607,13 +4607,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D54" s="2">
         <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F54" s="2">
         <v>762</v>
@@ -4622,7 +4622,7 @@
         <v>162</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I54" s="2">
         <v>69.294998000000007</v>
@@ -4631,7 +4631,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L54" s="1">
         <v>21</v>
@@ -4652,13 +4652,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D55" s="2">
         <v>67</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F55" s="2">
         <v>795</v>
@@ -4667,7 +4667,7 @@
         <v>163</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I55" s="2">
         <v>58.978766499999999</v>
@@ -4676,7 +4676,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L55" s="1">
         <v>21</v>
@@ -4697,13 +4697,13 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D56" s="2">
         <v>67</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F56" s="2">
         <v>368</v>
@@ -4712,7 +4712,7 @@
         <v>167</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I56" s="2">
         <v>43.766062669999997</v>
@@ -4721,7 +4721,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L56" s="1">
         <v>21</v>
@@ -4742,13 +4742,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D57" s="2">
         <v>67</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F57" s="2">
         <v>400</v>
@@ -4757,7 +4757,7 @@
         <v>168</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I57" s="2">
         <v>37.130247740000001</v>
@@ -4766,7 +4766,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L57" s="1">
         <v>21</v>
@@ -4787,13 +4787,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D58" s="2">
         <v>67</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F58" s="2">
         <v>414</v>
@@ -4802,7 +4802,7 @@
         <v>169</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I58" s="2">
         <v>47.493050289999999</v>
@@ -4811,7 +4811,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L58" s="1">
         <v>21</v>
@@ -4832,13 +4832,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D59" s="2">
         <v>67</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F59" s="2">
         <v>760</v>
@@ -4847,7 +4847,7 @@
         <v>174</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I59" s="2">
         <v>38.50466565</v>
@@ -4856,7 +4856,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L59" s="1">
         <v>21</v>
@@ -4877,13 +4877,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D60" s="2">
         <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F60" s="2">
         <v>626</v>
@@ -4892,7 +4892,7 @@
         <v>184</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I60" s="2">
         <v>125.9451052</v>
@@ -4901,7 +4901,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L60" s="1">
         <v>21</v>
@@ -4922,13 +4922,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D61" s="2">
         <v>67</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F61" s="2">
         <v>704</v>
@@ -4937,7 +4937,7 @@
         <v>186</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I61" s="2">
         <v>105.802499</v>
@@ -4946,7 +4946,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L61" s="1">
         <v>21</v>
@@ -4967,13 +4967,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D62" s="2">
         <v>67</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>
@@ -4982,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I62" s="2">
         <v>89.176607880000006</v>
@@ -4991,13 +4991,13 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L62" s="2">
         <v>22</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="2">
@@ -5012,13 +5012,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D63" s="2">
         <v>67</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F63" s="2">
         <v>356</v>
@@ -5027,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I63" s="2">
         <v>79.3608464</v>
@@ -5036,13 +5036,13 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L63" s="2">
         <v>22</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="2">
@@ -5057,13 +5057,13 @@
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D64" s="2">
         <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F64" s="2">
         <v>364</v>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I64" s="2">
         <v>54.197663480000003</v>
@@ -5081,13 +5081,13 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L64" s="2">
         <v>22</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="2">
@@ -5102,13 +5102,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D65" s="2">
         <v>67</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F65" s="2">
         <v>462</v>
@@ -5117,7 +5117,7 @@
         <v>6</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I65" s="2">
         <v>73.096725460000002</v>
@@ -5126,13 +5126,13 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L65" s="2">
         <v>22</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="2">
@@ -5147,13 +5147,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D66" s="2">
         <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F66" s="2">
         <v>586</v>
@@ -5162,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I66" s="2">
         <v>68.804796839999995</v>
@@ -5171,13 +5171,13 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L66" s="2">
         <v>22</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="2">
@@ -5192,13 +5192,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D67" s="2">
         <v>67</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F67" s="2">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67" s="2">
         <v>20.066609280000002</v>
@@ -5216,13 +5216,13 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L67" s="2">
         <v>22</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="2">
@@ -5237,13 +5237,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D68" s="2">
         <v>67</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F68" s="2">
         <v>36</v>
@@ -5252,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I68" s="2">
         <v>134.34994119999999</v>
@@ -5261,13 +5261,13 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L68" s="2">
         <v>22</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="2">
@@ -5282,13 +5282,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D69" s="2">
         <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F69" s="2">
         <v>40</v>
@@ -5297,7 +5297,7 @@
         <v>11</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I69" s="2">
         <v>14.141724719999999</v>
@@ -5306,13 +5306,13 @@
         <v>47.58704857</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L69" s="2">
         <v>22</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="2">
@@ -5327,13 +5327,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D70" s="2">
         <v>67</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F70" s="2">
         <v>70</v>
@@ -5342,7 +5342,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I70" s="2">
         <v>17.785843320000001</v>
@@ -5351,13 +5351,13 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L70" s="2">
         <v>22</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="2">
@@ -5372,13 +5372,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D71" s="2">
         <v>67</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F71" s="2">
         <v>100</v>
@@ -5387,7 +5387,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I71" s="2">
         <v>25.237631530000002</v>
@@ -5396,13 +5396,13 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L71" s="2">
         <v>22</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="2">
@@ -5417,13 +5417,13 @@
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D72" s="2">
         <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F72" s="2">
         <v>112</v>
@@ -5432,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I72" s="2">
         <v>28.04940161</v>
@@ -5441,13 +5441,13 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L72" s="2">
         <v>22</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="2">
@@ -5462,13 +5462,13 @@
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D73" s="2">
         <v>67</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F73" s="2">
         <v>124</v>
@@ -5477,7 +5477,7 @@
         <v>16</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I73" s="2">
         <v>-101.6575058</v>
@@ -5486,13 +5486,13 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L73" s="2">
         <v>22</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="2">
@@ -5507,13 +5507,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D74" s="2">
         <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F74" s="2">
         <v>191</v>
@@ -5522,7 +5522,7 @@
         <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I74" s="2">
         <v>17.958745530000002</v>
@@ -5531,13 +5531,13 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L74" s="2">
         <v>22</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="2">
@@ -5552,13 +5552,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D75" s="2">
         <v>67</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F75" s="2">
         <v>196</v>
@@ -5567,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I75" s="2">
         <v>33.222859640000003</v>
@@ -5576,13 +5576,13 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L75" s="2">
         <v>22</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="2">
@@ -5597,13 +5597,13 @@
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D76" s="2">
         <v>67</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F76" s="2">
         <v>208</v>
@@ -5612,7 +5612,7 @@
         <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I76" s="2">
         <v>9.3265712829999998</v>
@@ -5621,13 +5621,13 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L76" s="2">
         <v>22</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="2">
@@ -5642,13 +5642,13 @@
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D77" s="2">
         <v>67</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F77" s="2">
         <v>246</v>
@@ -5657,7 +5657,7 @@
         <v>21</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" s="2">
         <v>23.308447000000001</v>
@@ -5666,13 +5666,13 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L77" s="2">
         <v>22</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="2">
@@ -5687,13 +5687,13 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D78" s="2">
         <v>67</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F78" s="2">
         <v>250</v>
@@ -5702,7 +5702,7 @@
         <v>22</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I78" s="2">
         <v>2.4572881290000002</v>
@@ -5711,13 +5711,13 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L78" s="2">
         <v>22</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="2">
@@ -5732,13 +5732,13 @@
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D79" s="2">
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F79" s="2">
         <v>348</v>
@@ -5747,7 +5747,7 @@
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="2">
         <v>19.412215190000001</v>
@@ -5756,13 +5756,13 @@
         <v>47.1651448</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L79" s="2">
         <v>22</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="2">
@@ -5777,13 +5777,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D80" s="2">
         <v>67</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F80" s="2">
         <v>352</v>
@@ -5792,7 +5792,7 @@
         <v>27</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I80" s="2">
         <v>-19.021169660000002</v>
@@ -5801,13 +5801,13 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L80" s="2">
         <v>22</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="2">
@@ -5822,13 +5822,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D81" s="2">
         <v>67</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F81" s="2">
         <v>372</v>
@@ -5837,7 +5837,7 @@
         <v>28</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="2">
         <v>-7.1214252719999998</v>
@@ -5846,13 +5846,13 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L81" s="2">
         <v>22</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="2">
@@ -5867,13 +5867,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D82" s="2">
         <v>67</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F82" s="2">
         <v>376</v>
@@ -5882,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I82" s="2">
         <v>34.622779919999999</v>
@@ -5891,13 +5891,13 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L82" s="2">
         <v>22</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="2">
@@ -5912,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D83" s="2">
         <v>67</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F83" s="2">
         <v>392</v>
@@ -5927,7 +5927,7 @@
         <v>31</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I83" s="2">
         <v>139.27161029999999</v>
@@ -5936,13 +5936,13 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L83" s="2">
         <v>22</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="2">
@@ -5957,13 +5957,13 @@
         <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D84" s="2">
         <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F84" s="2">
         <v>428</v>
@@ -5972,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="2">
         <v>26.424618760000001</v>
@@ -5981,13 +5981,13 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L84" s="2">
         <v>22</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="2">
@@ -6002,13 +6002,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D85" s="2">
         <v>67</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F85" s="2">
         <v>440</v>
@@ -6017,7 +6017,7 @@
         <v>34</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I85" s="2">
         <v>23.905178070000002</v>
@@ -6026,13 +6026,13 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L85" s="2">
         <v>22</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="2">
@@ -6047,13 +6047,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D86" s="2">
         <v>67</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F86" s="2">
         <v>498</v>
@@ -6062,7 +6062,7 @@
         <v>37</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="2">
         <v>28.465062400000001</v>
@@ -6071,13 +6071,13 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L86" s="2">
         <v>22</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="2">
@@ -6092,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D87" s="2">
         <v>67</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F87" s="2">
         <v>499</v>
@@ -6107,7 +6107,7 @@
         <v>38</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I87" s="2">
         <v>19.252140239999999</v>
@@ -6116,13 +6116,13 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L87" s="2">
         <v>22</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="2">
@@ -6137,13 +6137,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D88" s="2">
         <v>67</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F88" s="2">
         <v>528</v>
@@ -6152,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I88" s="2">
         <v>5.3314805679999999</v>
@@ -6161,13 +6161,13 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L88" s="2">
         <v>22</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="2">
@@ -6182,13 +6182,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D89" s="2">
         <v>67</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F89" s="2">
         <v>578</v>
@@ -6197,7 +6197,7 @@
         <v>41</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I89" s="2">
         <v>11.47846389</v>
@@ -6206,13 +6206,13 @@
         <v>61.34311134</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L89" s="2">
         <v>22</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="2">
@@ -6227,13 +6227,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D90" s="2">
         <v>67</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F90" s="2">
         <v>620</v>
@@ -6242,7 +6242,7 @@
         <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I90" s="2">
         <v>-7.9615998110000001</v>
@@ -6251,13 +6251,13 @@
         <v>39.68509315</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L90" s="2">
         <v>22</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="2">
@@ -6272,13 +6272,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D91" s="2">
         <v>67</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F91" s="2">
         <v>642</v>
@@ -6287,7 +6287,7 @@
         <v>44</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I91" s="2">
         <v>24.98481009</v>
@@ -6296,13 +6296,13 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L91" s="2">
         <v>22</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="2">
@@ -6317,13 +6317,13 @@
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D92" s="2">
         <v>67</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F92" s="2">
         <v>688</v>
@@ -6332,7 +6332,7 @@
         <v>46</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I92" s="2">
         <v>20.805876000000001</v>
@@ -6341,13 +6341,13 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L92" s="2">
         <v>22</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="2">
@@ -6362,13 +6362,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D93" s="2">
         <v>67</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F93" s="2">
         <v>756</v>
@@ -6377,7 +6377,7 @@
         <v>51</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I93" s="2">
         <v>8.2231579999999997</v>
@@ -6386,13 +6386,13 @@
         <v>46.96617097</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L93" s="2">
         <v>22</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="2">
@@ -6407,13 +6407,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D94" s="2">
         <v>67</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F94" s="2">
         <v>804</v>
@@ -6422,7 +6422,7 @@
         <v>52</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I94" s="2">
         <v>31.402708019999999</v>
@@ -6431,13 +6431,13 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L94" s="2">
         <v>22</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="2">
@@ -6452,13 +6452,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D95" s="2">
         <v>67</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F95" s="2">
         <v>807</v>
@@ -6467,7 +6467,7 @@
         <v>53</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I95" s="2">
         <v>21.700790900000001</v>
@@ -6476,13 +6476,13 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L95" s="2">
         <v>22</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="2">
@@ -6497,13 +6497,13 @@
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D96" s="2">
         <v>67</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F96" s="2">
         <v>12</v>
@@ -6512,7 +6512,7 @@
         <v>56</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I96" s="2">
         <v>2.6781642269999999</v>
@@ -6521,13 +6521,13 @@
         <v>28.15940032</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L96" s="2">
         <v>22</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="2">
@@ -6542,13 +6542,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D97" s="2">
         <v>67</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F97" s="2">
         <v>504</v>
@@ -6557,7 +6557,7 @@
         <v>58</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I97" s="2">
         <v>-6.2819428410000002</v>
@@ -6566,13 +6566,13 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L97" s="2">
         <v>22</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="2">
@@ -6587,13 +6587,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D98" s="2">
         <v>67</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F98" s="2">
         <v>818</v>
@@ -6602,7 +6602,7 @@
         <v>60</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I98" s="2">
         <v>29.774685340000001</v>
@@ -6611,13 +6611,13 @@
         <v>26.57438204</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L98" s="2">
         <v>22</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="2">
@@ -6632,13 +6632,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D99" s="2">
         <v>67</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F99" s="2">
         <v>90</v>
@@ -6647,7 +6647,7 @@
         <v>61</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I99" s="2">
         <v>160.15841169999999</v>
@@ -6656,13 +6656,13 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L99" s="2">
         <v>22</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="2">
@@ -6677,13 +6677,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D100" s="2">
         <v>67</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F100" s="2">
         <v>242</v>
@@ -6692,7 +6692,7 @@
         <v>62</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I100" s="2">
         <v>177.96608839999999</v>
@@ -6701,13 +6701,13 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L100" s="2">
         <v>22</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="2">
@@ -6722,13 +6722,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D101" s="2">
         <v>67</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F101" s="2">
         <v>296</v>
@@ -6737,7 +6737,7 @@
         <v>63</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I101" s="2">
         <v>-157.5643005</v>
@@ -6746,13 +6746,13 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L101" s="2">
         <v>22</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="2">
@@ -6767,13 +6767,13 @@
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D102" s="2">
         <v>67</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F102" s="2">
         <v>540</v>
@@ -6782,7 +6782,7 @@
         <v>66</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I102" s="2">
         <v>165.5067368</v>
@@ -6791,13 +6791,13 @@
         <v>-21.417425309999999</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L102" s="2">
         <v>22</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="2">
@@ -6812,13 +6812,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D103" s="2">
         <v>67</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F103" s="2">
         <v>548</v>
@@ -6827,7 +6827,7 @@
         <v>67</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I103" s="2">
         <v>167.06797789999999</v>
@@ -6836,13 +6836,13 @@
         <v>-15.34445547</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L103" s="2">
         <v>22</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="2">
@@ -6857,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D104" s="2">
         <v>67</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F104" s="2">
         <v>583</v>
@@ -6872,7 +6872,7 @@
         <v>69</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I104" s="2">
         <v>158.22521599999999</v>
@@ -6881,13 +6881,13 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L104" s="2">
         <v>22</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="2">
@@ -6902,13 +6902,13 @@
         <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D105" s="2">
         <v>67</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F105" s="2">
         <v>584</v>
@@ -6917,7 +6917,7 @@
         <v>70</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I105" s="2">
         <v>171.0839119</v>
@@ -6926,13 +6926,13 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L105" s="2">
         <v>22</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="2">
@@ -6947,13 +6947,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D106" s="2">
         <v>67</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F106" s="2">
         <v>598</v>
@@ -6962,7 +6962,7 @@
         <v>72</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I106" s="2">
         <v>145.8587761</v>
@@ -6971,13 +6971,13 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L106" s="2">
         <v>22</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="2">
@@ -6992,13 +6992,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D107" s="2">
         <v>67</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F107" s="2">
         <v>776</v>
@@ -7007,7 +7007,7 @@
         <v>73</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I107" s="2">
         <v>-175.19599909999999</v>
@@ -7016,13 +7016,13 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L107" s="2">
         <v>22</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="2">
@@ -7037,13 +7037,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D108" s="2">
         <v>67</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F108" s="2">
         <v>798</v>
@@ -7052,7 +7052,7 @@
         <v>74</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I108" s="2">
         <v>178.66796110000001</v>
@@ -7061,13 +7061,13 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L108" s="2">
         <v>22</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="2">
@@ -7082,13 +7082,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D109" s="2">
         <v>67</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F109" s="2">
         <v>72</v>
@@ -7097,7 +7097,7 @@
         <v>78</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I109" s="2">
         <v>23.81380223</v>
@@ -7112,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="2">
@@ -7127,13 +7127,13 @@
         <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D110" s="2">
         <v>67</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F110" s="2">
         <v>120</v>
@@ -7142,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I110" s="2">
         <v>12.741982699999999</v>
@@ -7157,7 +7157,7 @@
         <v>22</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="2">
@@ -7172,13 +7172,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D111" s="2">
         <v>67</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F111" s="2">
         <v>140</v>
@@ -7187,7 +7187,7 @@
         <v>82</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I111" s="2">
         <v>20.93559492</v>
@@ -7202,7 +7202,7 @@
         <v>22</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="2">
@@ -7217,13 +7217,13 @@
         <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D112" s="2">
         <v>67</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F112" s="2">
         <v>148</v>
@@ -7232,7 +7232,7 @@
         <v>83</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I112" s="2">
         <v>18.666184009999998</v>
@@ -7247,7 +7247,7 @@
         <v>22</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="2">
@@ -7262,13 +7262,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D113" s="2">
         <v>67</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F113" s="2">
         <v>178</v>
@@ -7277,7 +7277,7 @@
         <v>85</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I113" s="2">
         <v>15.220526120000001</v>
@@ -7292,7 +7292,7 @@
         <v>22</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="2">
@@ -7307,13 +7307,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D114" s="2">
         <v>67</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F114" s="2">
         <v>180</v>
@@ -7322,7 +7322,7 @@
         <v>86</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I114" s="2">
         <v>23.654965069999999</v>
@@ -7337,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="2">
@@ -7352,13 +7352,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D115" s="2">
         <v>67</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F115" s="2">
         <v>204</v>
@@ -7367,7 +7367,7 @@
         <v>87</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I115" s="2">
         <v>2.3399335940000001</v>
@@ -7382,7 +7382,7 @@
         <v>22</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="2">
@@ -7397,13 +7397,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D116" s="2">
         <v>67</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F116" s="2">
         <v>231</v>
@@ -7412,7 +7412,7 @@
         <v>89</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I116" s="2">
         <v>39.635052960000003</v>
@@ -7427,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="2">
@@ -7442,13 +7442,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D117" s="2">
         <v>67</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F117" s="2">
         <v>262</v>
@@ -7457,7 +7457,7 @@
         <v>90</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I117" s="2">
         <v>42.182747069999998</v>
@@ -7472,7 +7472,7 @@
         <v>22</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="2">
@@ -7487,13 +7487,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D118" s="2">
         <v>67</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F118" s="2">
         <v>288</v>
@@ -7502,7 +7502,7 @@
         <v>93</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I118" s="2">
         <v>-1.205623522</v>
@@ -7517,7 +7517,7 @@
         <v>22</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="2">
@@ -7532,13 +7532,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D119" s="2">
         <v>67</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F119" s="2">
         <v>324</v>
@@ -7547,7 +7547,7 @@
         <v>94</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I119" s="2">
         <v>-11.28173419</v>
@@ -7562,7 +7562,7 @@
         <v>22</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="2">
@@ -7577,13 +7577,13 @@
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D120" s="2">
         <v>67</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F120" s="2">
         <v>384</v>
@@ -7592,7 +7592,7 @@
         <v>95</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I120" s="2">
         <v>-5.5526900159999997</v>
@@ -7607,7 +7607,7 @@
         <v>22</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="2">
@@ -7622,13 +7622,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D121" s="2">
         <v>67</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F121" s="2">
         <v>404</v>
@@ -7637,7 +7637,7 @@
         <v>96</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I121" s="2">
         <v>37.860968159999999</v>
@@ -7652,7 +7652,7 @@
         <v>22</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="2">
@@ -7667,13 +7667,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D122" s="2">
         <v>67</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F122" s="2">
         <v>426</v>
@@ -7682,7 +7682,7 @@
         <v>97</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I122" s="2">
         <v>28.253621949999999</v>
@@ -7697,7 +7697,7 @@
         <v>22</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="2">
@@ -7712,13 +7712,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D123" s="2">
         <v>67</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F123" s="2">
         <v>466</v>
@@ -7727,7 +7727,7 @@
         <v>101</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I123" s="2">
         <v>-3.5220160389999999</v>
@@ -7742,7 +7742,7 @@
         <v>22</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="2">
@@ -7757,13 +7757,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D124" s="2">
         <v>67</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F124" s="2">
         <v>478</v>
@@ -7772,7 +7772,7 @@
         <v>102</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I124" s="2">
         <v>-10.33187259</v>
@@ -7787,7 +7787,7 @@
         <v>22</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="2">
@@ -7802,13 +7802,13 @@
         <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D125" s="2">
         <v>67</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F125" s="2">
         <v>480</v>
@@ -7817,7 +7817,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I125" s="2">
         <v>57.568021999999999</v>
@@ -7832,7 +7832,7 @@
         <v>22</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="2">
@@ -7847,13 +7847,13 @@
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D126" s="2">
         <v>67</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F126" s="2">
         <v>508</v>
@@ -7862,7 +7862,7 @@
         <v>104</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I126" s="2">
         <v>38.184799409999997</v>
@@ -7877,7 +7877,7 @@
         <v>22</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="2">
@@ -7892,13 +7892,13 @@
         <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D127" s="2">
         <v>67</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F127" s="2">
         <v>562</v>
@@ -7907,7 +7907,7 @@
         <v>106</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I127" s="2">
         <v>9.4001678769999995</v>
@@ -7922,7 +7922,7 @@
         <v>22</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="2">
@@ -7937,13 +7937,13 @@
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D128" s="2">
         <v>67</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F128" s="2">
         <v>566</v>
@@ -7952,7 +7952,7 @@
         <v>107</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I128" s="2">
         <v>8.0973632559999995</v>
@@ -7967,7 +7967,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="2">
@@ -7982,13 +7982,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D129" s="2">
         <v>67</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F129" s="2">
         <v>646</v>
@@ -7997,7 +7997,7 @@
         <v>109</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I129" s="2">
         <v>29.923101939999999</v>
@@ -8012,7 +8012,7 @@
         <v>22</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="2">
@@ -8027,13 +8027,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D130" s="2">
         <v>67</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F130" s="2">
         <v>686</v>
@@ -8042,7 +8042,7 @@
         <v>111</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I130" s="2">
         <v>-14.46636926</v>
@@ -8057,7 +8057,7 @@
         <v>22</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N130" s="1"/>
       <c r="O130" s="2">
@@ -8072,13 +8072,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D131" s="2">
         <v>67</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F131" s="2">
         <v>690</v>
@@ -8087,7 +8087,7 @@
         <v>112</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I131" s="2">
         <v>55.465615909999997</v>
@@ -8102,7 +8102,7 @@
         <v>22</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="2">
@@ -8117,13 +8117,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D132" s="2">
         <v>67</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F132" s="2">
         <v>716</v>
@@ -8132,7 +8132,7 @@
         <v>115</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I132" s="2">
         <v>29.86909584</v>
@@ -8147,7 +8147,7 @@
         <v>22</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="2">
@@ -8162,13 +8162,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D133" s="2">
         <v>67</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F133" s="2">
         <v>729</v>
@@ -8177,7 +8177,7 @@
         <v>116</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I133" s="2">
         <v>29.956501589999998</v>
@@ -8186,13 +8186,13 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L133" s="2">
         <v>22</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N133" s="1"/>
       <c r="O133" s="2">
@@ -8207,13 +8207,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D134" s="2">
         <v>67</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F134" s="2">
         <v>768</v>
@@ -8222,7 +8222,7 @@
         <v>117</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I134" s="2">
         <v>0.97835764999999997</v>
@@ -8237,7 +8237,7 @@
         <v>22</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="2">
@@ -8252,13 +8252,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D135" s="2">
         <v>67</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F135" s="2">
         <v>800</v>
@@ -8267,7 +8267,7 @@
         <v>118</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I135" s="2">
         <v>32.391004379999998</v>
@@ -8282,7 +8282,7 @@
         <v>22</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N135" s="1"/>
       <c r="O135" s="2">
@@ -8297,13 +8297,13 @@
         <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D136" s="2">
         <v>67</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F136" s="2">
         <v>834</v>
@@ -8312,7 +8312,7 @@
         <v>119</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I136" s="2">
         <v>34.805211819999997</v>
@@ -8327,7 +8327,7 @@
         <v>22</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N136" s="1"/>
       <c r="O136" s="2">
@@ -8342,13 +8342,13 @@
         <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D137" s="2">
         <v>67</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F137" s="2">
         <v>854</v>
@@ -8357,7 +8357,7 @@
         <v>120</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I137" s="2">
         <v>-1.7428438289999999</v>
@@ -8372,7 +8372,7 @@
         <v>22</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N137" s="1"/>
       <c r="O137" s="2">
@@ -8387,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D138" s="2">
         <v>67</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F138" s="2">
         <v>28</v>
@@ -8402,7 +8402,7 @@
         <v>123</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I138" s="2">
         <v>-61.799975500000002</v>
@@ -8417,7 +8417,7 @@
         <v>22</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N138" s="1"/>
       <c r="O138" s="2">
@@ -8432,13 +8432,13 @@
         <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D139" s="2">
         <v>67</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F139" s="2">
         <v>44</v>
@@ -8447,7 +8447,7 @@
         <v>125</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I139" s="2">
         <v>-78.051116629999996</v>
@@ -8462,7 +8462,7 @@
         <v>22</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N139" s="1"/>
       <c r="O139" s="2">
@@ -8477,13 +8477,13 @@
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D140" s="2">
         <v>67</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F140" s="2">
         <v>52</v>
@@ -8492,7 +8492,7 @@
         <v>126</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I140" s="2">
         <v>-59.534648900000001</v>
@@ -8507,7 +8507,7 @@
         <v>22</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="2">
@@ -8522,13 +8522,13 @@
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D141" s="2">
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F141" s="2">
         <v>84</v>
@@ -8537,7 +8537,7 @@
         <v>129</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I141" s="2">
         <v>-88.701995539999999</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N141" s="1"/>
       <c r="O141" s="2">
@@ -8567,13 +8567,13 @@
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D142" s="2">
         <v>67</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F142" s="2">
         <v>136</v>
@@ -8582,7 +8582,7 @@
         <v>130</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I142" s="2">
         <v>-81.167405590000001</v>
@@ -8597,7 +8597,7 @@
         <v>22</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N142" s="1"/>
       <c r="O142" s="2">
@@ -8612,13 +8612,13 @@
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D143" s="2">
         <v>67</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F143" s="2">
         <v>328</v>
@@ -8627,7 +8627,7 @@
         <v>141</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I143" s="2">
         <v>-58.97322037</v>
@@ -8642,7 +8642,7 @@
         <v>22</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="2">
@@ -8657,13 +8657,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D144" s="2">
         <v>67</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F144" s="2">
         <v>388</v>
@@ -8672,7 +8672,7 @@
         <v>144</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I144" s="2">
         <v>-77.310684089999995</v>
@@ -8687,7 +8687,7 @@
         <v>22</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="2">
@@ -8702,13 +8702,13 @@
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D145" s="2">
         <v>67</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F145" s="2">
         <v>659</v>
@@ -8717,7 +8717,7 @@
         <v>150</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I145" s="2">
         <v>-62.766286129999997</v>
@@ -8732,7 +8732,7 @@
         <v>22</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="2">
@@ -8747,13 +8747,13 @@
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D146" s="2">
         <v>67</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F146" s="2">
         <v>660</v>
@@ -8762,7 +8762,7 @@
         <v>151</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I146" s="2">
         <v>-63.056516119999998</v>
@@ -8777,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="2">
@@ -8792,13 +8792,13 @@
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D147" s="2">
         <v>67</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F147" s="2">
         <v>662</v>
@@ -8807,7 +8807,7 @@
         <v>152</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I147" s="2">
         <v>-60.965295529999999</v>
@@ -8822,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="2">
@@ -8837,13 +8837,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D148" s="2">
         <v>67</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F148" s="2">
         <v>31</v>
@@ -8852,7 +8852,7 @@
         <v>157</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I148" s="2">
         <v>50.010647249999998</v>
@@ -8861,13 +8861,13 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L148" s="2">
         <v>22</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="2">
@@ -8882,13 +8882,13 @@
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D149" s="2">
         <v>67</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F149" s="2">
         <v>268</v>
@@ -8897,7 +8897,7 @@
         <v>159</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I149" s="2">
         <v>43.371361499999999</v>
@@ -8906,13 +8906,13 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L149" s="2">
         <v>22</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="2">
@@ -8927,13 +8927,13 @@
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D150" s="2">
         <v>67</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F150" s="2">
         <v>398</v>
@@ -8942,7 +8942,7 @@
         <v>160</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I150" s="2">
         <v>66.653591590000005</v>
@@ -8951,13 +8951,13 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L150" s="2">
         <v>22</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="2">
@@ -8972,13 +8972,13 @@
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D151" s="2">
         <v>67</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F151" s="2">
         <v>417</v>
@@ -8987,7 +8987,7 @@
         <v>161</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I151" s="2">
         <v>74.523248390000006</v>
@@ -8996,13 +8996,13 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L151" s="2">
         <v>22</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="2">
@@ -9017,13 +9017,13 @@
         <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D152" s="2">
         <v>67</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F152" s="2">
         <v>860</v>
@@ -9032,7 +9032,7 @@
         <v>164</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I152" s="2">
         <v>63.119445579999997</v>
@@ -9041,13 +9041,13 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L152" s="2">
         <v>22</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="2">
@@ -9062,13 +9062,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D153" s="2">
         <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F153" s="2">
         <v>275</v>
@@ -9077,7 +9077,7 @@
         <v>166</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I153" s="2">
         <v>35.256941220000002</v>
@@ -9086,13 +9086,13 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L153" s="2">
         <v>22</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="2">
@@ -9107,13 +9107,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D154" s="2">
         <v>67</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F154" s="2">
         <v>422</v>
@@ -9122,7 +9122,7 @@
         <v>170</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I154" s="2">
         <v>35.893917109999997</v>
@@ -9131,13 +9131,13 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L154" s="2">
         <v>22</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="2">
@@ -9152,13 +9152,13 @@
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D155" s="2">
         <v>67</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F155" s="2">
         <v>512</v>
@@ -9167,7 +9167,7 @@
         <v>171</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I155" s="2">
         <v>57.877434819999998</v>
@@ -9176,13 +9176,13 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L155" s="2">
         <v>22</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="2">
@@ -9197,13 +9197,13 @@
         <v>7</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D156" s="2">
         <v>67</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F156" s="2">
         <v>634</v>
@@ -9212,7 +9212,7 @@
         <v>172</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I156" s="2">
         <v>51.19152467</v>
@@ -9221,13 +9221,13 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L156" s="2">
         <v>22</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="2">
@@ -9242,13 +9242,13 @@
         <v>7</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D157" s="2">
         <v>67</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F157" s="2">
         <v>682</v>
@@ -9257,7 +9257,7 @@
         <v>173</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I157" s="2">
         <v>44.547633470000001</v>
@@ -9266,13 +9266,13 @@
         <v>24.12594211</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L157" s="2">
         <v>22</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="2">
@@ -9287,13 +9287,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D158" s="2">
         <v>67</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F158" s="2">
         <v>792</v>
@@ -9302,7 +9302,7 @@
         <v>175</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I158" s="2">
         <v>35.428903290000001</v>
@@ -9311,13 +9311,13 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L158" s="2">
         <v>22</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="2">
@@ -9332,13 +9332,13 @@
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D159" s="2">
         <v>67</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F159" s="2">
         <v>887</v>
@@ -9347,7 +9347,7 @@
         <v>176</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I159" s="2">
         <v>45.223891430000002</v>
@@ -9356,13 +9356,13 @@
         <v>15.22242099</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L159" s="2">
         <v>22</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="2">
@@ -9377,13 +9377,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D160" s="2">
         <v>67</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F160" s="2">
         <v>96</v>
@@ -9392,7 +9392,7 @@
         <v>177</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I160" s="2">
         <v>114.6288563</v>
@@ -9401,13 +9401,13 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L160" s="2">
         <v>22</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="2">
@@ -9422,13 +9422,13 @@
         <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D161" s="2">
         <v>67</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F161" s="2">
         <v>104</v>
@@ -9437,7 +9437,7 @@
         <v>178</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I161" s="2">
         <v>96.51752295</v>
@@ -9446,13 +9446,13 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L161" s="2">
         <v>22</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="2">
@@ -9467,13 +9467,13 @@
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D162" s="2">
         <v>67</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F162" s="2">
         <v>116</v>
@@ -9482,7 +9482,7 @@
         <v>179</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I162" s="2">
         <v>104.922836</v>
@@ -9491,13 +9491,13 @@
         <v>12.71163737</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L162" s="2">
         <v>22</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="2">
@@ -9512,13 +9512,13 @@
         <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D163" s="2">
         <v>67</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F163" s="2">
         <v>360</v>
@@ -9527,7 +9527,7 @@
         <v>180</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I163" s="2">
         <v>113.9174</v>
@@ -9536,13 +9536,13 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L163" s="2">
         <v>22</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="2">
@@ -9557,13 +9557,13 @@
         <v>7</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D164" s="2">
         <v>67</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F164" s="2">
         <v>418</v>
@@ -9572,7 +9572,7 @@
         <v>181</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I164" s="2">
         <v>101.99019680000001</v>
@@ -9581,13 +9581,13 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L164" s="2">
         <v>22</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="2">
@@ -9602,13 +9602,13 @@
         <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D165" s="2">
         <v>67</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F165" s="2">
         <v>458</v>
@@ -9617,7 +9617,7 @@
         <v>182</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I165" s="2">
         <v>116.83463140000001</v>
@@ -9626,13 +9626,13 @@
         <v>5.452415309</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L165" s="2">
         <v>22</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="2">
@@ -9647,13 +9647,13 @@
         <v>7</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D166" s="2">
         <v>67</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F166" s="2">
         <v>608</v>
@@ -9662,7 +9662,7 @@
         <v>183</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I166" s="2">
         <v>120.86014179999999</v>
@@ -9671,13 +9671,13 @@
         <v>14.16591706</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L166" s="2">
         <v>22</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="2">
@@ -9692,13 +9692,13 @@
         <v>7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D167" s="2">
         <v>67</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F167" s="2">
         <v>702</v>
@@ -9707,7 +9707,7 @@
         <v>185</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I167" s="2">
         <v>103.8107883</v>
@@ -9716,13 +9716,13 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L167" s="2">
         <v>22</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="2">
@@ -9737,13 +9737,13 @@
         <v>7</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D168" s="2">
         <v>67</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F168" s="2">
         <v>764</v>
@@ -9752,7 +9752,7 @@
         <v>187</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I168" s="2">
         <v>101.0202951</v>
@@ -9761,13 +9761,13 @@
         <v>15.13089239</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L168" s="2">
         <v>22</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="2">
@@ -9782,13 +9782,13 @@
         <v>7</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D169" s="2">
         <v>67</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F169" s="2">
         <v>156</v>
@@ -9797,7 +9797,7 @@
         <v>188</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I169" s="2">
         <v>104.1403375</v>
@@ -9806,13 +9806,13 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L169" s="2">
         <v>22</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="2">
@@ -9827,22 +9827,22 @@
         <v>7</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D170" s="2">
         <v>67</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F170" s="2">
         <v>446</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I170" s="2">
         <v>113.5665388</v>
@@ -9851,13 +9851,13 @@
         <v>22.1237259</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L170" s="2">
         <v>22</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="2">
@@ -9872,13 +9872,13 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D171" s="2">
         <v>67</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F171" s="2">
         <v>826</v>
@@ -9887,7 +9887,7 @@
         <v>54</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I171" s="2">
         <v>-2.2383053899999998</v>
@@ -9896,16 +9896,16 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L171" s="1">
         <v>23</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O171" s="2">
         <v>2017</v>
@@ -9919,13 +9919,13 @@
         <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D172" s="2">
         <v>67</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F172" s="2">
         <v>705</v>
@@ -9934,7 +9934,7 @@
         <v>48</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I172" s="2">
         <v>14.82209486</v>
@@ -9943,16 +9943,16 @@
         <v>46.11958061</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L172" s="1">
         <v>23</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O172" s="2">
         <v>2017</v>
@@ -9966,13 +9966,13 @@
         <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D173" s="2">
         <v>67</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F173" s="2">
         <v>703</v>
@@ -9981,7 +9981,7 @@
         <v>47</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I173" s="2">
         <v>19.48495604</v>
@@ -9990,16 +9990,16 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L173" s="1">
         <v>23</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O173" s="2">
         <v>2017</v>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D174" s="2">
         <v>67</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F174" s="2">
         <v>344</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I174" s="2">
         <v>114.0266445</v>
@@ -10037,16 +10037,16 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L174" s="1">
         <v>23</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O174" s="2">
         <v>2017</v>
@@ -10060,13 +10060,13 @@
         <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D175" s="2">
         <v>67</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F175" s="2">
         <v>212</v>
@@ -10075,7 +10075,7 @@
         <v>135</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I175" s="2">
         <v>-61.349375600000002</v>
@@ -10090,10 +10090,10 @@
         <v>23</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O175" s="2">
         <v>2017</v>
@@ -10107,13 +10107,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D176" s="2">
         <v>67</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F176" s="2">
         <v>894</v>
@@ -10122,7 +10122,7 @@
         <v>121</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I176" s="2">
         <v>27.850328999999999</v>
@@ -10137,10 +10137,10 @@
         <v>23</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O176" s="2">
         <v>2017</v>
@@ -10154,13 +10154,13 @@
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D177" s="2">
         <v>67</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F177" s="2">
         <v>516</v>
@@ -10169,7 +10169,7 @@
         <v>105</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I177" s="2">
         <v>17.219078849999999</v>
@@ -10184,10 +10184,10 @@
         <v>23</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O177" s="2">
         <v>2017</v>
@@ -10201,13 +10201,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D178" s="2">
         <v>67</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F178" s="2">
         <v>616</v>
@@ -10216,7 +10216,7 @@
         <v>42</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I178" s="2">
         <v>19.40660158</v>
@@ -10225,16 +10225,16 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L178" s="1">
         <v>23</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O178" s="2">
         <v>2017</v>
@@ -10248,13 +10248,13 @@
         <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D179" s="2">
         <v>67</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F179" s="2">
         <v>51</v>
@@ -10263,7 +10263,7 @@
         <v>158</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I179" s="2">
         <v>44.938393169999998</v>
@@ -10272,16 +10272,16 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L179" s="1">
         <v>23</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O179" s="2">
         <v>2017</v>
@@ -10295,13 +10295,13 @@
         <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D180" s="2">
         <v>67</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F180" s="2">
         <v>496</v>
@@ -10310,7 +10310,7 @@
         <v>190</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I180" s="2">
         <v>103.0728057</v>
@@ -10319,16 +10319,16 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L180" s="1">
         <v>23</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O180" s="2">
         <v>2017</v>
@@ -10342,13 +10342,13 @@
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D181" s="2">
         <v>67</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F181" s="2">
         <v>48</v>
@@ -10357,7 +10357,7 @@
         <v>165</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I181" s="2">
         <v>50.5490754</v>
@@ -10366,16 +10366,16 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L181" s="1">
         <v>23</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O181" s="2">
         <v>2017</v>
@@ -10389,13 +10389,13 @@
         <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D182" s="2">
         <v>67</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F182" s="2">
         <v>788</v>
@@ -10404,7 +10404,7 @@
         <v>59</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I182" s="2">
         <v>9.5727374110000003</v>
@@ -10413,16 +10413,16 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L182" s="1">
         <v>23</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O182" s="2">
         <v>2017</v>
@@ -10436,13 +10436,13 @@
         <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D183" s="2">
         <v>67</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F183" s="2">
         <v>470</v>
@@ -10451,7 +10451,7 @@
         <v>36</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I183" s="2">
         <v>14.44617519</v>
@@ -10460,16 +10460,16 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L183" s="1">
         <v>23</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O183" s="2">
         <v>2017</v>
@@ -10483,13 +10483,13 @@
         <v>7</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D184" s="2">
         <v>67</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F184" s="2">
         <v>570</v>
@@ -10498,7 +10498,7 @@
         <v>68</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I184" s="2">
         <v>-169.8601693</v>
@@ -10507,16 +10507,16 @@
         <v>-19.050004749999999</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L184" s="1">
         <v>23</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O184" s="2">
         <v>2017</v>
@@ -10530,13 +10530,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D185" s="2">
         <v>67</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F185" s="2">
         <v>752</v>
@@ -10545,7 +10545,7 @@
         <v>50</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I185" s="2">
         <v>14.3775338</v>
@@ -10554,16 +10554,16 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L185" s="1">
         <v>23</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O185" s="2">
         <v>2017</v>
@@ -10577,13 +10577,13 @@
         <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D186" s="2">
         <v>67</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F186" s="2">
         <v>233</v>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I186" s="2">
         <v>25.84093481</v>
@@ -10601,16 +10601,16 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L186" s="1">
         <v>23</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O186" s="2">
         <v>2017</v>
@@ -10624,22 +10624,22 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D187" s="2">
         <v>67</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F187" s="2">
         <v>203</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I187" s="2">
         <v>15.33151382</v>
@@ -10648,16 +10648,16 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L187" s="1">
         <v>23</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O187" s="2">
         <v>2017</v>
@@ -10671,13 +10671,13 @@
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D188" s="2">
         <v>67</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F188" s="2">
         <v>882</v>
@@ -10686,7 +10686,7 @@
         <v>75</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I188" s="2">
         <v>-172.4430749</v>
@@ -10695,16 +10695,16 @@
         <v>-13.61541469</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L188" s="1">
         <v>23</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O188" s="2">
         <v>2017</v>
@@ -10718,13 +10718,13 @@
         <v>7</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D189" s="2">
         <v>67</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F189" s="2">
         <v>554</v>
@@ -10733,7 +10733,7 @@
         <v>40</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I189" s="2">
         <v>170.47556729999999</v>
@@ -10742,16 +10742,16 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L189" s="1">
         <v>23</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O189" s="2">
         <v>2017</v>
@@ -10765,13 +10765,13 @@
         <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D190" s="2">
         <v>67</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F190" s="2">
         <v>270</v>
@@ -10780,7 +10780,7 @@
         <v>92</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I190" s="2">
         <v>-15.39944785</v>
@@ -10795,10 +10795,10 @@
         <v>23</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O190" s="2">
         <v>2017</v>
@@ -10812,13 +10812,13 @@
         <v>7</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D191" s="2">
         <v>67</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F191" s="2">
         <v>410</v>
@@ -10827,7 +10827,7 @@
         <v>189</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I191" s="2">
         <v>127.8610254</v>
@@ -10836,16 +10836,16 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L191" s="1">
         <v>23</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O191" s="2">
         <v>2017</v>
@@ -10859,13 +10859,13 @@
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D192" s="2">
         <v>67</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F192" s="2">
         <v>710</v>
@@ -10874,7 +10874,7 @@
         <v>114</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I192" s="2">
         <v>24.671843549999998</v>
@@ -10889,10 +10889,10 @@
         <v>23</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O192" s="2">
         <v>2017</v>
@@ -10906,13 +10906,13 @@
         <v>7</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D193" s="2">
         <v>67</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F193" s="2">
         <v>694</v>
@@ -10921,7 +10921,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I193" s="2">
         <v>-11.783065840000001</v>
@@ -10936,10 +10936,10 @@
         <v>23</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O193" s="2">
         <v>2017</v>
@@ -10960,6 +10960,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -11182,15 +11191,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11200,6 +11200,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9B291-8724-4472-BF66-1344F4601067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E630C785-9733-4E59-9D07-95F1F4A7950F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11218,14 +11226,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9B291-8724-4472-BF66-1344F4601067}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD49AF4E-97CA-4E5D-BBDF-E508EB1841A4}">
   <ds:schemaRefs>

--- a/source_data/Qual_7_data.xlsx
+++ b/source_data/Qual_7_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA7D37-CBEA-4A85-B2C8-9E05C4C3D756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040B3C8-5B20-4B28-A3CC-99C9AE9DF15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 - Existence of law on gender " sheetId="1" r:id="rId1"/>
@@ -608,12 +608,6 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -1335,6 +1329,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2214,49 +2214,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D2" s="2">
         <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F2" s="2">
         <v>4</v>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I2" s="2">
         <v>66.026881979999999</v>
@@ -2291,7 +2291,7 @@
         <v>33.831601990000003</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L2" s="1">
         <v>21</v>
@@ -2312,13 +2312,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D3" s="2">
         <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F3" s="2">
         <v>144</v>
@@ -2327,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2">
         <v>80.704896539999993</v>
@@ -2336,7 +2336,7 @@
         <v>7.6146933429999999</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L3" s="1">
         <v>21</v>
@@ -2357,13 +2357,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D4" s="2">
         <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F4" s="2">
         <v>524</v>
@@ -2372,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I4" s="2">
         <v>83.94678863</v>
@@ -2381,7 +2381,7 @@
         <v>28.25866332</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L4" s="1">
         <v>21</v>
@@ -2402,13 +2402,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D5" s="2">
         <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F5" s="2">
         <v>56</v>
@@ -2417,7 +2417,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I5" s="2">
         <v>4.6609764560000002</v>
@@ -2426,7 +2426,7 @@
         <v>50.641049750000001</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L5" s="1">
         <v>21</v>
@@ -2447,13 +2447,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D6" s="2">
         <v>67</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" s="2">
         <v>276</v>
@@ -2462,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I6" s="2">
         <v>10.3806066</v>
@@ -2471,7 +2471,7 @@
         <v>51.088627430000003</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L6" s="1">
         <v>21</v>
@@ -2492,13 +2492,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D7" s="2">
         <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F7" s="2">
         <v>300</v>
@@ -2507,7 +2507,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I7" s="2">
         <v>22.583078270000001</v>
@@ -2516,7 +2516,7 @@
         <v>39.47301873</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L7" s="1">
         <v>21</v>
@@ -2537,13 +2537,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D8" s="2">
         <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F8" s="2">
         <v>304</v>
@@ -2552,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I8" s="2">
         <v>-41.393713159999997</v>
@@ -2561,7 +2561,7 @@
         <v>74.756256809999996</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L8" s="1">
         <v>21</v>
@@ -2582,13 +2582,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D9" s="2">
         <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F9" s="2">
         <v>380</v>
@@ -2597,7 +2597,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I9" s="2">
         <v>12.570224270000001</v>
@@ -2606,7 +2606,7 @@
         <v>42.799172820000003</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L9" s="1">
         <v>21</v>
@@ -2627,13 +2627,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D10" s="2">
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F10" s="2">
         <v>438</v>
@@ -2642,7 +2642,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I10" s="2">
         <v>9.5529850189999994</v>
@@ -2651,7 +2651,7 @@
         <v>47.141670050000002</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L10" s="1">
         <v>21</v>
@@ -2672,13 +2672,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D11" s="2">
         <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F11" s="2">
         <v>442</v>
@@ -2687,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I11" s="2">
         <v>6.0926565630000002</v>
@@ -2696,7 +2696,7 @@
         <v>49.776795380000003</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L11" s="1">
         <v>21</v>
@@ -2717,13 +2717,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D12" s="2">
         <v>67</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F12" s="2">
         <v>643</v>
@@ -2732,7 +2732,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I12" s="2">
         <v>99.014049259999993</v>
@@ -2741,7 +2741,7 @@
         <v>61.618998490000003</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L12" s="1">
         <v>21</v>
@@ -2762,13 +2762,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D13" s="2">
         <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F13" s="2">
         <v>724</v>
@@ -2777,7 +2777,7 @@
         <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I13" s="2">
         <v>-3.5540782960000001</v>
@@ -2786,7 +2786,7 @@
         <v>40.392114720000002</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L13" s="1">
         <v>21</v>
@@ -2807,13 +2807,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D14" s="2">
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F14" s="2">
         <v>840</v>
@@ -2822,7 +2822,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I14" s="2">
         <v>-99.138303109999995</v>
@@ -2831,7 +2831,7 @@
         <v>39.527787099999998</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L14" s="1">
         <v>21</v>
@@ -2852,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D15" s="2">
         <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F15" s="2">
         <v>434</v>
@@ -2867,7 +2867,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I15" s="2">
         <v>18.029598499999999</v>
@@ -2876,7 +2876,7 @@
         <v>27.04042819</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L15" s="1">
         <v>21</v>
@@ -2897,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D16" s="2">
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F16" s="2">
         <v>316</v>
@@ -2912,7 +2912,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I16" s="2">
         <v>144.70293050000001</v>
@@ -2921,7 +2921,7 @@
         <v>13.354854039999999</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L16" s="1">
         <v>21</v>
@@ -2942,13 +2942,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D17" s="2">
         <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F17" s="2">
         <v>520</v>
@@ -2957,7 +2957,7 @@
         <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I17" s="2">
         <v>166.92312999999999</v>
@@ -2966,7 +2966,7 @@
         <v>-0.52874262299999997</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L17" s="1">
         <v>21</v>
@@ -2987,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D18" s="2">
         <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F18" s="2">
         <v>585</v>
@@ -3002,7 +3002,7 @@
         <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I18" s="2">
         <v>134.57338780000001</v>
@@ -3011,7 +3011,7 @@
         <v>7.5023075910000001</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L18" s="1">
         <v>21</v>
@@ -3032,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D19" s="2">
         <v>67</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F19" s="2">
         <v>24</v>
@@ -3047,7 +3047,7 @@
         <v>77</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I19" s="2">
         <v>17.578170620000002</v>
@@ -3077,13 +3077,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D20" s="2">
         <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F20" s="2">
         <v>108</v>
@@ -3092,7 +3092,7 @@
         <v>79</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I20" s="2">
         <v>29.890809919999999</v>
@@ -3122,13 +3122,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D21" s="2">
         <v>67</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F21" s="2">
         <v>132</v>
@@ -3137,7 +3137,7 @@
         <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I21" s="2">
         <v>-23.63544151</v>
@@ -3167,13 +3167,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D22" s="2">
         <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F22" s="2">
         <v>174</v>
@@ -3182,7 +3182,7 @@
         <v>84</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I22" s="2">
         <v>43.342345649999999</v>
@@ -3212,13 +3212,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D23" s="2">
         <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F23" s="2">
         <v>226</v>
@@ -3227,7 +3227,7 @@
         <v>88</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I23" s="2">
         <v>10.46535826</v>
@@ -3257,13 +3257,13 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D24" s="2">
         <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F24" s="2">
         <v>266</v>
@@ -3272,7 +3272,7 @@
         <v>91</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I24" s="2">
         <v>11.787277469999999</v>
@@ -3302,13 +3302,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D25" s="2">
         <v>67</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F25" s="2">
         <v>430</v>
@@ -3317,7 +3317,7 @@
         <v>98</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I25" s="2">
         <v>-9.3118790380000007</v>
@@ -3347,13 +3347,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D26" s="2">
         <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F26" s="2">
         <v>450</v>
@@ -3362,7 +3362,7 @@
         <v>99</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I26" s="2">
         <v>46.698233899999998</v>
@@ -3392,13 +3392,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D27" s="2">
         <v>67</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F27" s="2">
         <v>454</v>
@@ -3407,7 +3407,7 @@
         <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I27" s="2">
         <v>33.488462499999997</v>
@@ -3437,13 +3437,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D28" s="2">
         <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F28" s="2">
         <v>624</v>
@@ -3452,7 +3452,7 @@
         <v>108</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I28" s="2">
         <v>-14.40182514</v>
@@ -3482,13 +3482,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D29" s="2">
         <v>67</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F29" s="2">
         <v>678</v>
@@ -3497,7 +3497,7 @@
         <v>110</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I29" s="2">
         <v>6.6097722650000001</v>
@@ -3527,22 +3527,22 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D30" s="2">
         <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F30" s="2">
         <v>748</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I30" s="2">
         <v>31.501492880000001</v>
@@ -3572,13 +3572,13 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D31" s="2">
         <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F31" s="2">
         <v>32</v>
@@ -3587,7 +3587,7 @@
         <v>124</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I31" s="2">
         <v>-65.145632739999996</v>
@@ -3617,13 +3617,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D32" s="2">
         <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F32" s="2">
         <v>68</v>
@@ -3632,7 +3632,7 @@
         <v>127</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I32" s="2">
         <v>-64.662242840000005</v>
@@ -3662,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D33" s="2">
         <v>67</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F33" s="2">
         <v>76</v>
@@ -3677,7 +3677,7 @@
         <v>128</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I33" s="2">
         <v>-53.08432878</v>
@@ -3707,13 +3707,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D34" s="2">
         <v>67</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F34" s="2">
         <v>152</v>
@@ -3722,7 +3722,7 @@
         <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I34" s="2">
         <v>-71.230290190000005</v>
@@ -3752,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D35" s="2">
         <v>67</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F35" s="2">
         <v>170</v>
@@ -3767,7 +3767,7 @@
         <v>132</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I35" s="2">
         <v>-73.074467510000005</v>
@@ -3797,13 +3797,13 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D36" s="2">
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F36" s="2">
         <v>188</v>
@@ -3812,7 +3812,7 @@
         <v>133</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I36" s="2">
         <v>-84.197127820000006</v>
@@ -3842,13 +3842,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D37" s="2">
         <v>67</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F37" s="2">
         <v>192</v>
@@ -3857,7 +3857,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I37" s="2">
         <v>-79.544601439999994</v>
@@ -3887,13 +3887,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D38" s="2">
         <v>67</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F38" s="2">
         <v>214</v>
@@ -3902,7 +3902,7 @@
         <v>136</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I38" s="2">
         <v>-70.498475760000005</v>
@@ -3932,13 +3932,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D39" s="2">
         <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F39" s="2">
         <v>218</v>
@@ -3947,7 +3947,7 @@
         <v>137</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I39" s="2">
         <v>-78.37005241</v>
@@ -3977,13 +3977,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D40" s="2">
         <v>67</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F40" s="2">
         <v>222</v>
@@ -3992,7 +3992,7 @@
         <v>138</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I40" s="2">
         <v>-88.868629949999999</v>
@@ -4022,13 +4022,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D41" s="2">
         <v>67</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F41" s="2">
         <v>308</v>
@@ -4037,7 +4037,7 @@
         <v>139</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I41" s="2">
         <v>-61.682485679999999</v>
@@ -4067,13 +4067,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D42" s="2">
         <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F42" s="2">
         <v>320</v>
@@ -4082,7 +4082,7 @@
         <v>140</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I42" s="2">
         <v>-91.231274600000006</v>
@@ -4112,13 +4112,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D43" s="2">
         <v>67</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F43" s="2">
         <v>332</v>
@@ -4127,7 +4127,7 @@
         <v>142</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I43" s="2">
         <v>-72.336409579999994</v>
@@ -4157,13 +4157,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D44" s="2">
         <v>67</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F44" s="2">
         <v>340</v>
@@ -4172,7 +4172,7 @@
         <v>143</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I44" s="2">
         <v>-86.599743810000007</v>
@@ -4202,13 +4202,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D45" s="2">
         <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F45" s="2">
         <v>484</v>
@@ -4217,7 +4217,7 @@
         <v>145</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I45" s="2">
         <v>-102.5148166</v>
@@ -4247,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D46" s="2">
         <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F46" s="2">
         <v>558</v>
@@ -4262,7 +4262,7 @@
         <v>146</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I46" s="2">
         <v>-85.030603150000005</v>
@@ -4292,13 +4292,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D47" s="2">
         <v>67</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F47" s="2">
         <v>591</v>
@@ -4307,7 +4307,7 @@
         <v>147</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I47" s="2">
         <v>-81.266166229999996</v>
@@ -4337,13 +4337,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D48" s="2">
         <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F48" s="2">
         <v>600</v>
@@ -4352,7 +4352,7 @@
         <v>148</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I48" s="2">
         <v>-60.548542249999997</v>
@@ -4382,13 +4382,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D49" s="2">
         <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F49" s="2">
         <v>604</v>
@@ -4397,7 +4397,7 @@
         <v>149</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I49" s="2">
         <v>-71.820932769999999</v>
@@ -4427,13 +4427,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D50" s="2">
         <v>67</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F50" s="2">
         <v>740</v>
@@ -4442,7 +4442,7 @@
         <v>153</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I50" s="2">
         <v>-55.906263940000002</v>
@@ -4472,13 +4472,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D51" s="2">
         <v>67</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F51" s="2">
         <v>780</v>
@@ -4487,7 +4487,7 @@
         <v>154</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I51" s="2">
         <v>-61.293895040000002</v>
@@ -4517,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D52" s="2">
         <v>67</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F52" s="2">
         <v>858</v>
@@ -4532,7 +4532,7 @@
         <v>155</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="I52" s="2">
         <v>-56.013870249999997</v>
@@ -4562,13 +4562,13 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D53" s="2">
         <v>67</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F53" s="2">
         <v>862</v>
@@ -4577,7 +4577,7 @@
         <v>156</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I53" s="2">
         <v>-66.156420839999996</v>
@@ -4607,13 +4607,13 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D54" s="2">
         <v>67</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F54" s="2">
         <v>762</v>
@@ -4622,7 +4622,7 @@
         <v>162</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I54" s="2">
         <v>69.294998000000007</v>
@@ -4631,7 +4631,7 @@
         <v>38.430696660000002</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L54" s="1">
         <v>21</v>
@@ -4652,13 +4652,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D55" s="2">
         <v>67</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F55" s="2">
         <v>795</v>
@@ -4667,7 +4667,7 @@
         <v>163</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I55" s="2">
         <v>58.978766499999999</v>
@@ -4676,7 +4676,7 @@
         <v>40.0912346</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L55" s="1">
         <v>21</v>
@@ -4697,13 +4697,13 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D56" s="2">
         <v>67</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F56" s="2">
         <v>368</v>
@@ -4712,7 +4712,7 @@
         <v>167</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I56" s="2">
         <v>43.766062669999997</v>
@@ -4721,7 +4721,7 @@
         <v>33.05013795</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L56" s="1">
         <v>21</v>
@@ -4742,13 +4742,13 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D57" s="2">
         <v>67</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F57" s="2">
         <v>400</v>
@@ -4757,7 +4757,7 @@
         <v>168</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I57" s="2">
         <v>37.130247740000001</v>
@@ -4766,7 +4766,7 @@
         <v>30.653659730000001</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L57" s="1">
         <v>21</v>
@@ -4787,13 +4787,13 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D58" s="2">
         <v>67</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F58" s="2">
         <v>414</v>
@@ -4802,7 +4802,7 @@
         <v>169</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I58" s="2">
         <v>47.493050289999999</v>
@@ -4811,7 +4811,7 @@
         <v>29.539494680000001</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L58" s="1">
         <v>21</v>
@@ -4832,13 +4832,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D59" s="2">
         <v>67</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F59" s="2">
         <v>760</v>
@@ -4847,7 +4847,7 @@
         <v>174</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I59" s="2">
         <v>38.50466565</v>
@@ -4856,7 +4856,7 @@
         <v>35.016761760000001</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L59" s="1">
         <v>21</v>
@@ -4877,13 +4877,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D60" s="2">
         <v>67</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F60" s="2">
         <v>626</v>
@@ -4892,7 +4892,7 @@
         <v>184</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I60" s="2">
         <v>125.9451052</v>
@@ -4901,7 +4901,7 @@
         <v>-8.7974972470000008</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L60" s="1">
         <v>21</v>
@@ -4922,13 +4922,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D61" s="2">
         <v>67</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F61" s="2">
         <v>704</v>
@@ -4937,7 +4937,7 @@
         <v>186</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I61" s="2">
         <v>105.802499</v>
@@ -4946,7 +4946,7 @@
         <v>10.096430789999999</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L61" s="1">
         <v>21</v>
@@ -4967,13 +4967,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D62" s="2">
         <v>67</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F62" s="2">
         <v>50</v>
@@ -4982,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I62" s="2">
         <v>89.176607880000006</v>
@@ -4991,13 +4991,13 @@
         <v>22.869616220000001</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L62" s="2">
         <v>22</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="2">
@@ -5012,13 +5012,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D63" s="2">
         <v>67</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F63" s="2">
         <v>356</v>
@@ -5027,7 +5027,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I63" s="2">
         <v>79.3608464</v>
@@ -5036,13 +5036,13 @@
         <v>22.346420739999999</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L63" s="2">
         <v>22</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="2">
@@ -5057,13 +5057,13 @@
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D64" s="2">
         <v>67</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F64" s="2">
         <v>364</v>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I64" s="2">
         <v>54.197663480000003</v>
@@ -5081,13 +5081,13 @@
         <v>32.743708849999997</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L64" s="2">
         <v>22</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="2">
@@ -5102,13 +5102,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D65" s="2">
         <v>67</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F65" s="2">
         <v>462</v>
@@ -5117,7 +5117,7 @@
         <v>6</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I65" s="2">
         <v>73.096725460000002</v>
@@ -5126,13 +5126,13 @@
         <v>-0.61438502100000003</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L65" s="2">
         <v>22</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="2">
@@ -5147,13 +5147,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D66" s="2">
         <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F66" s="2">
         <v>586</v>
@@ -5162,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I66" s="2">
         <v>68.804796839999995</v>
@@ -5171,13 +5171,13 @@
         <v>29.364916340000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L66" s="2">
         <v>22</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="2">
@@ -5192,13 +5192,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D67" s="2">
         <v>67</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F67" s="2">
         <v>8</v>
@@ -5207,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I67" s="2">
         <v>20.066609280000002</v>
@@ -5216,13 +5216,13 @@
         <v>41.138970069999999</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L67" s="2">
         <v>22</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="2">
@@ -5237,13 +5237,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D68" s="2">
         <v>67</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F68" s="2">
         <v>36</v>
@@ -5252,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I68" s="2">
         <v>134.34994119999999</v>
@@ -5261,13 +5261,13 @@
         <v>-25.577172019999999</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L68" s="2">
         <v>22</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="2">
@@ -5282,13 +5282,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D69" s="2">
         <v>67</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F69" s="2">
         <v>40</v>
@@ -5297,7 +5297,7 @@
         <v>11</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I69" s="2">
         <v>14.141724719999999</v>
@@ -5306,13 +5306,13 @@
         <v>47.58704857</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L69" s="2">
         <v>22</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="2">
@@ -5327,13 +5327,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2">
         <v>67</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F70" s="2">
         <v>70</v>
@@ -5342,7 +5342,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I70" s="2">
         <v>17.785843320000001</v>
@@ -5351,13 +5351,13 @@
         <v>44.168455479999999</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L70" s="2">
         <v>22</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="2">
@@ -5372,13 +5372,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2">
         <v>67</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F71" s="2">
         <v>100</v>
@@ -5387,7 +5387,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I71" s="2">
         <v>25.237631530000002</v>
@@ -5396,13 +5396,13 @@
         <v>42.757313230000001</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L71" s="2">
         <v>22</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="2">
@@ -5417,13 +5417,13 @@
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D72" s="2">
         <v>67</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F72" s="2">
         <v>112</v>
@@ -5432,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I72" s="2">
         <v>28.04940161</v>
@@ -5441,13 +5441,13 @@
         <v>53.541930749999999</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L72" s="2">
         <v>22</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="2">
@@ -5462,13 +5462,13 @@
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D73" s="2">
         <v>67</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F73" s="2">
         <v>124</v>
@@ -5477,7 +5477,7 @@
         <v>16</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I73" s="2">
         <v>-101.6575058</v>
@@ -5486,13 +5486,13 @@
         <v>57.723601909999999</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L73" s="2">
         <v>22</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="2">
@@ -5507,13 +5507,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2">
         <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F74" s="2">
         <v>191</v>
@@ -5522,7 +5522,7 @@
         <v>17</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" s="2">
         <v>17.958745530000002</v>
@@ -5531,13 +5531,13 @@
         <v>45.451722119999999</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L74" s="2">
         <v>22</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="2">
@@ -5552,13 +5552,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D75" s="2">
         <v>67</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F75" s="2">
         <v>196</v>
@@ -5567,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I75" s="2">
         <v>33.222859640000003</v>
@@ -5576,13 +5576,13 @@
         <v>35.056594369999999</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L75" s="2">
         <v>22</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="2">
@@ -5597,13 +5597,13 @@
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D76" s="2">
         <v>67</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F76" s="2">
         <v>208</v>
@@ -5612,7 +5612,7 @@
         <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I76" s="2">
         <v>9.3265712829999998</v>
@@ -5621,13 +5621,13 @@
         <v>56.038297210000003</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L76" s="2">
         <v>22</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="2">
@@ -5642,13 +5642,13 @@
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D77" s="2">
         <v>67</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F77" s="2">
         <v>246</v>
@@ -5657,7 +5657,7 @@
         <v>21</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I77" s="2">
         <v>23.308447000000001</v>
@@ -5666,13 +5666,13 @@
         <v>61.915867380000002</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L77" s="2">
         <v>22</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="2">
@@ -5687,13 +5687,13 @@
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D78" s="2">
         <v>67</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F78" s="2">
         <v>250</v>
@@ -5702,7 +5702,7 @@
         <v>22</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I78" s="2">
         <v>2.4572881290000002</v>
@@ -5711,13 +5711,13 @@
         <v>46.626608609999998</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L78" s="2">
         <v>22</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="2">
@@ -5732,13 +5732,13 @@
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D79" s="2">
         <v>67</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F79" s="2">
         <v>348</v>
@@ -5747,7 +5747,7 @@
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I79" s="2">
         <v>19.412215190000001</v>
@@ -5756,13 +5756,13 @@
         <v>47.1651448</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L79" s="2">
         <v>22</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="2">
@@ -5777,13 +5777,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D80" s="2">
         <v>67</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F80" s="2">
         <v>352</v>
@@ -5792,7 +5792,7 @@
         <v>27</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I80" s="2">
         <v>-19.021169660000002</v>
@@ -5801,13 +5801,13 @@
         <v>64.791347630000004</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L80" s="2">
         <v>22</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="2">
@@ -5822,13 +5822,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D81" s="2">
         <v>67</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F81" s="2">
         <v>372</v>
@@ -5837,7 +5837,7 @@
         <v>28</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I81" s="2">
         <v>-7.1214252719999998</v>
@@ -5846,13 +5846,13 @@
         <v>53.252740539999998</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L81" s="2">
         <v>22</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="2">
@@ -5867,13 +5867,13 @@
         <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D82" s="2">
         <v>67</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F82" s="2">
         <v>376</v>
@@ -5882,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I82" s="2">
         <v>34.622779919999999</v>
@@ -5891,13 +5891,13 @@
         <v>31.061645519999999</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L82" s="2">
         <v>22</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="2">
@@ -5912,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D83" s="2">
         <v>67</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F83" s="2">
         <v>392</v>
@@ -5927,7 +5927,7 @@
         <v>31</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I83" s="2">
         <v>139.27161029999999</v>
@@ -5936,13 +5936,13 @@
         <v>36.655453899999998</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L83" s="2">
         <v>22</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N83" s="1"/>
       <c r="O83" s="2">
@@ -5957,13 +5957,13 @@
         <v>7</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D84" s="2">
         <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F84" s="2">
         <v>428</v>
@@ -5972,7 +5972,7 @@
         <v>32</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I84" s="2">
         <v>26.424618760000001</v>
@@ -5981,13 +5981,13 @@
         <v>56.641966359999998</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L84" s="2">
         <v>22</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="2">
@@ -6002,13 +6002,13 @@
         <v>7</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D85" s="2">
         <v>67</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F85" s="2">
         <v>440</v>
@@ -6017,7 +6017,7 @@
         <v>34</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I85" s="2">
         <v>23.905178070000002</v>
@@ -6026,13 +6026,13 @@
         <v>55.336803089999997</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L85" s="2">
         <v>22</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N85" s="1"/>
       <c r="O85" s="2">
@@ -6047,13 +6047,13 @@
         <v>7</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D86" s="2">
         <v>67</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F86" s="2">
         <v>498</v>
@@ -6062,7 +6062,7 @@
         <v>37</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I86" s="2">
         <v>28.465062400000001</v>
@@ -6071,13 +6071,13 @@
         <v>47.202367950000003</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L86" s="2">
         <v>22</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="2">
@@ -6092,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D87" s="2">
         <v>67</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F87" s="2">
         <v>499</v>
@@ -6107,7 +6107,7 @@
         <v>38</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I87" s="2">
         <v>19.252140239999999</v>
@@ -6116,13 +6116,13 @@
         <v>42.787170430000003</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L87" s="2">
         <v>22</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="2">
@@ -6137,13 +6137,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D88" s="2">
         <v>67</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F88" s="2">
         <v>528</v>
@@ -6152,7 +6152,7 @@
         <v>39</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I88" s="2">
         <v>5.3314805679999999</v>
@@ -6161,13 +6161,13 @@
         <v>51.867288840000001</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L88" s="2">
         <v>22</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="2">
@@ -6182,13 +6182,13 @@
         <v>7</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D89" s="2">
         <v>67</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F89" s="2">
         <v>578</v>
@@ -6197,7 +6197,7 @@
         <v>41</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I89" s="2">
         <v>11.47846389</v>
@@ -6206,13 +6206,13 @@
         <v>61.34311134</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L89" s="2">
         <v>22</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="2">
@@ -6227,13 +6227,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D90" s="2">
         <v>67</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F90" s="2">
         <v>620</v>
@@ -6242,7 +6242,7 @@
         <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I90" s="2">
         <v>-7.9615998110000001</v>
@@ -6251,13 +6251,13 @@
         <v>39.68509315</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L90" s="2">
         <v>22</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="2">
@@ -6272,13 +6272,13 @@
         <v>7</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D91" s="2">
         <v>67</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F91" s="2">
         <v>642</v>
@@ -6287,7 +6287,7 @@
         <v>44</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I91" s="2">
         <v>24.98481009</v>
@@ -6296,13 +6296,13 @@
         <v>45.838935630000002</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L91" s="2">
         <v>22</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="2">
@@ -6317,13 +6317,13 @@
         <v>7</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D92" s="2">
         <v>67</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F92" s="2">
         <v>688</v>
@@ -6332,7 +6332,7 @@
         <v>46</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I92" s="2">
         <v>20.805876000000001</v>
@@ -6341,13 +6341,13 @@
         <v>44.031456970000001</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L92" s="2">
         <v>22</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="2">
@@ -6362,13 +6362,13 @@
         <v>7</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D93" s="2">
         <v>67</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F93" s="2">
         <v>756</v>
@@ -6377,7 +6377,7 @@
         <v>51</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I93" s="2">
         <v>8.2231579999999997</v>
@@ -6386,13 +6386,13 @@
         <v>46.96617097</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L93" s="2">
         <v>22</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="2">
@@ -6407,13 +6407,13 @@
         <v>7</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D94" s="2">
         <v>67</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F94" s="2">
         <v>804</v>
@@ -6422,7 +6422,7 @@
         <v>52</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I94" s="2">
         <v>31.402708019999999</v>
@@ -6431,13 +6431,13 @@
         <v>49.007359450000003</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L94" s="2">
         <v>22</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="2">
@@ -6452,13 +6452,13 @@
         <v>7</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D95" s="2">
         <v>67</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F95" s="2">
         <v>807</v>
@@ -6467,7 +6467,7 @@
         <v>53</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I95" s="2">
         <v>21.700790900000001</v>
@@ -6476,13 +6476,13 @@
         <v>41.600480679999997</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L95" s="2">
         <v>22</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="2">
@@ -6497,13 +6497,13 @@
         <v>7</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D96" s="2">
         <v>67</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F96" s="2">
         <v>12</v>
@@ -6512,7 +6512,7 @@
         <v>56</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I96" s="2">
         <v>2.6781642269999999</v>
@@ -6521,13 +6521,13 @@
         <v>28.15940032</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L96" s="2">
         <v>22</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="2">
@@ -6542,13 +6542,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D97" s="2">
         <v>67</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F97" s="2">
         <v>504</v>
@@ -6557,7 +6557,7 @@
         <v>58</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I97" s="2">
         <v>-6.2819428410000002</v>
@@ -6566,13 +6566,13 @@
         <v>31.844013100000002</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L97" s="2">
         <v>22</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="2">
@@ -6587,13 +6587,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D98" s="2">
         <v>67</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F98" s="2">
         <v>818</v>
@@ -6602,7 +6602,7 @@
         <v>60</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I98" s="2">
         <v>29.774685340000001</v>
@@ -6611,13 +6611,13 @@
         <v>26.57438204</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L98" s="2">
         <v>22</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="2">
@@ -6632,13 +6632,13 @@
         <v>7</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D99" s="2">
         <v>67</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F99" s="2">
         <v>90</v>
@@ -6647,7 +6647,7 @@
         <v>61</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I99" s="2">
         <v>160.15841169999999</v>
@@ -6656,13 +6656,13 @@
         <v>-9.6223917189999995</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L99" s="2">
         <v>22</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="2">
@@ -6677,13 +6677,13 @@
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D100" s="2">
         <v>67</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F100" s="2">
         <v>242</v>
@@ -6692,7 +6692,7 @@
         <v>62</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I100" s="2">
         <v>177.96608839999999</v>
@@ -6701,13 +6701,13 @@
         <v>-17.833015660000001</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L100" s="2">
         <v>22</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="2">
@@ -6722,13 +6722,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D101" s="2">
         <v>67</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F101" s="2">
         <v>296</v>
@@ -6737,7 +6737,7 @@
         <v>63</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I101" s="2">
         <v>-157.5643005</v>
@@ -6746,13 +6746,13 @@
         <v>1.7688377319999999</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L101" s="2">
         <v>22</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="2">
@@ -6767,13 +6767,13 @@
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D102" s="2">
         <v>67</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F102" s="2">
         <v>540</v>
@@ -6782,7 +6782,7 @@
         <v>66</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I102" s="2">
         <v>165.5067368</v>
@@ -6791,13 +6791,13 @@
         <v>-21.417425309999999</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L102" s="2">
         <v>22</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="2">
@@ -6812,13 +6812,13 @@
         <v>7</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D103" s="2">
         <v>67</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F103" s="2">
         <v>548</v>
@@ -6827,7 +6827,7 @@
         <v>67</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I103" s="2">
         <v>167.06797789999999</v>
@@ -6836,13 +6836,13 @@
         <v>-15.34445547</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L103" s="2">
         <v>22</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="2">
@@ -6857,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D104" s="2">
         <v>67</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F104" s="2">
         <v>583</v>
@@ -6872,7 +6872,7 @@
         <v>69</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I104" s="2">
         <v>158.22521599999999</v>
@@ -6881,13 +6881,13 @@
         <v>6.8806700919999999</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L104" s="2">
         <v>22</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="2">
@@ -6902,13 +6902,13 @@
         <v>7</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D105" s="2">
         <v>67</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F105" s="2">
         <v>584</v>
@@ -6917,7 +6917,7 @@
         <v>70</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I105" s="2">
         <v>171.0839119</v>
@@ -6926,13 +6926,13 @@
         <v>7.1102134970000002</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L105" s="2">
         <v>22</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="2">
@@ -6947,13 +6947,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D106" s="2">
         <v>67</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F106" s="2">
         <v>598</v>
@@ -6962,7 +6962,7 @@
         <v>72</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I106" s="2">
         <v>145.8587761</v>
@@ -6971,13 +6971,13 @@
         <v>-6.7560570770000004</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L106" s="2">
         <v>22</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="2">
@@ -6992,13 +6992,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D107" s="2">
         <v>67</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F107" s="2">
         <v>776</v>
@@ -7007,7 +7007,7 @@
         <v>73</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I107" s="2">
         <v>-175.19599909999999</v>
@@ -7016,13 +7016,13 @@
         <v>-21.195113289999998</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L107" s="2">
         <v>22</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="2">
@@ -7037,13 +7037,13 @@
         <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D108" s="2">
         <v>67</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F108" s="2">
         <v>798</v>
@@ -7052,7 +7052,7 @@
         <v>74</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I108" s="2">
         <v>178.66796110000001</v>
@@ -7061,13 +7061,13 @@
         <v>-7.4600480710000001</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L108" s="2">
         <v>22</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="2">
@@ -7082,13 +7082,13 @@
         <v>7</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D109" s="2">
         <v>67</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F109" s="2">
         <v>72</v>
@@ -7097,7 +7097,7 @@
         <v>78</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I109" s="2">
         <v>23.81380223</v>
@@ -7112,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="2">
@@ -7127,13 +7127,13 @@
         <v>7</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D110" s="2">
         <v>67</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F110" s="2">
         <v>120</v>
@@ -7142,7 +7142,7 @@
         <v>80</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I110" s="2">
         <v>12.741982699999999</v>
@@ -7157,7 +7157,7 @@
         <v>22</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="2">
@@ -7172,13 +7172,13 @@
         <v>7</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D111" s="2">
         <v>67</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F111" s="2">
         <v>140</v>
@@ -7187,7 +7187,7 @@
         <v>82</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I111" s="2">
         <v>20.93559492</v>
@@ -7202,7 +7202,7 @@
         <v>22</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="2">
@@ -7217,13 +7217,13 @@
         <v>7</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D112" s="2">
         <v>67</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F112" s="2">
         <v>148</v>
@@ -7232,7 +7232,7 @@
         <v>83</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I112" s="2">
         <v>18.666184009999998</v>
@@ -7247,7 +7247,7 @@
         <v>22</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="2">
@@ -7262,13 +7262,13 @@
         <v>7</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D113" s="2">
         <v>67</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F113" s="2">
         <v>178</v>
@@ -7277,7 +7277,7 @@
         <v>85</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I113" s="2">
         <v>15.220526120000001</v>
@@ -7292,7 +7292,7 @@
         <v>22</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="2">
@@ -7307,13 +7307,13 @@
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D114" s="2">
         <v>67</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F114" s="2">
         <v>180</v>
@@ -7322,7 +7322,7 @@
         <v>86</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I114" s="2">
         <v>23.654965069999999</v>
@@ -7337,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="2">
@@ -7352,13 +7352,13 @@
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D115" s="2">
         <v>67</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F115" s="2">
         <v>204</v>
@@ -7367,7 +7367,7 @@
         <v>87</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I115" s="2">
         <v>2.3399335940000001</v>
@@ -7382,7 +7382,7 @@
         <v>22</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="2">
@@ -7397,13 +7397,13 @@
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D116" s="2">
         <v>67</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F116" s="2">
         <v>231</v>
@@ -7412,7 +7412,7 @@
         <v>89</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I116" s="2">
         <v>39.635052960000003</v>
@@ -7427,7 +7427,7 @@
         <v>22</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="2">
@@ -7442,13 +7442,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D117" s="2">
         <v>67</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F117" s="2">
         <v>262</v>
@@ -7457,7 +7457,7 @@
         <v>90</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I117" s="2">
         <v>42.182747069999998</v>
@@ -7472,7 +7472,7 @@
         <v>22</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="2">
@@ -7487,13 +7487,13 @@
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D118" s="2">
         <v>67</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F118" s="2">
         <v>288</v>
@@ -7502,7 +7502,7 @@
         <v>93</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I118" s="2">
         <v>-1.205623522</v>
@@ -7517,7 +7517,7 @@
         <v>22</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="2">
@@ -7532,13 +7532,13 @@
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D119" s="2">
         <v>67</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F119" s="2">
         <v>324</v>
@@ -7547,7 +7547,7 @@
         <v>94</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I119" s="2">
         <v>-11.28173419</v>
@@ -7562,7 +7562,7 @@
         <v>22</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="2">
@@ -7577,13 +7577,13 @@
         <v>7</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D120" s="2">
         <v>67</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F120" s="2">
         <v>384</v>
@@ -7592,7 +7592,7 @@
         <v>95</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I120" s="2">
         <v>-5.5526900159999997</v>
@@ -7607,7 +7607,7 @@
         <v>22</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="2">
@@ -7622,13 +7622,13 @@
         <v>7</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D121" s="2">
         <v>67</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F121" s="2">
         <v>404</v>
@@ -7637,7 +7637,7 @@
         <v>96</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I121" s="2">
         <v>37.860968159999999</v>
@@ -7652,7 +7652,7 @@
         <v>22</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N121" s="1"/>
       <c r="O121" s="2">
@@ -7667,13 +7667,13 @@
         <v>7</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D122" s="2">
         <v>67</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F122" s="2">
         <v>426</v>
@@ -7682,7 +7682,7 @@
         <v>97</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I122" s="2">
         <v>28.253621949999999</v>
@@ -7697,7 +7697,7 @@
         <v>22</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N122" s="1"/>
       <c r="O122" s="2">
@@ -7712,13 +7712,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D123" s="2">
         <v>67</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F123" s="2">
         <v>466</v>
@@ -7727,7 +7727,7 @@
         <v>101</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I123" s="2">
         <v>-3.5220160389999999</v>
@@ -7742,7 +7742,7 @@
         <v>22</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N123" s="1"/>
       <c r="O123" s="2">
@@ -7757,13 +7757,13 @@
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D124" s="2">
         <v>67</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F124" s="2">
         <v>478</v>
@@ -7772,7 +7772,7 @@
         <v>102</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I124" s="2">
         <v>-10.33187259</v>
@@ -7787,7 +7787,7 @@
         <v>22</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="2">
@@ -7802,13 +7802,13 @@
         <v>7</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D125" s="2">
         <v>67</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F125" s="2">
         <v>480</v>
@@ -7817,7 +7817,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I125" s="2">
         <v>57.568021999999999</v>
@@ -7832,7 +7832,7 @@
         <v>22</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="2">
@@ -7847,13 +7847,13 @@
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D126" s="2">
         <v>67</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F126" s="2">
         <v>508</v>
@@ -7862,7 +7862,7 @@
         <v>104</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I126" s="2">
         <v>38.184799409999997</v>
@@ -7877,7 +7877,7 @@
         <v>22</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="2">
@@ -7892,13 +7892,13 @@
         <v>7</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D127" s="2">
         <v>67</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F127" s="2">
         <v>562</v>
@@ -7907,7 +7907,7 @@
         <v>106</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I127" s="2">
         <v>9.4001678769999995</v>
@@ -7922,7 +7922,7 @@
         <v>22</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="2">
@@ -7937,13 +7937,13 @@
         <v>7</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D128" s="2">
         <v>67</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F128" s="2">
         <v>566</v>
@@ -7952,7 +7952,7 @@
         <v>107</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I128" s="2">
         <v>8.0973632559999995</v>
@@ -7967,7 +7967,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="2">
@@ -7982,13 +7982,13 @@
         <v>7</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D129" s="2">
         <v>67</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F129" s="2">
         <v>646</v>
@@ -7997,7 +7997,7 @@
         <v>109</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I129" s="2">
         <v>29.923101939999999</v>
@@ -8012,7 +8012,7 @@
         <v>22</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="2">
@@ -8027,13 +8027,13 @@
         <v>7</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D130" s="2">
         <v>67</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F130" s="2">
         <v>686</v>
@@ -8042,7 +8042,7 @@
         <v>111</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I130" s="2">
         <v>-14.46636926</v>
@@ -8057,7 +8057,7 @@
         <v>22</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N130" s="1"/>
       <c r="O130" s="2">
@@ -8072,13 +8072,13 @@
         <v>7</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D131" s="2">
         <v>67</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F131" s="2">
         <v>690</v>
@@ -8087,7 +8087,7 @@
         <v>112</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I131" s="2">
         <v>55.465615909999997</v>
@@ -8102,7 +8102,7 @@
         <v>22</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="2">
@@ -8117,13 +8117,13 @@
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D132" s="2">
         <v>67</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F132" s="2">
         <v>716</v>
@@ -8132,7 +8132,7 @@
         <v>115</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I132" s="2">
         <v>29.86909584</v>
@@ -8147,7 +8147,7 @@
         <v>22</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="2">
@@ -8162,13 +8162,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D133" s="2">
         <v>67</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F133" s="2">
         <v>729</v>
@@ -8177,7 +8177,7 @@
         <v>116</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I133" s="2">
         <v>29.956501589999998</v>
@@ -8186,13 +8186,13 @@
         <v>16.026430659999999</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L133" s="2">
         <v>22</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N133" s="1"/>
       <c r="O133" s="2">
@@ -8207,13 +8207,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D134" s="2">
         <v>67</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F134" s="2">
         <v>768</v>
@@ -8222,7 +8222,7 @@
         <v>117</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I134" s="2">
         <v>0.97835764999999997</v>
@@ -8237,7 +8237,7 @@
         <v>22</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="2">
@@ -8252,13 +8252,13 @@
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D135" s="2">
         <v>67</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F135" s="2">
         <v>800</v>
@@ -8267,7 +8267,7 @@
         <v>118</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I135" s="2">
         <v>32.391004379999998</v>
@@ -8282,7 +8282,7 @@
         <v>22</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N135" s="1"/>
       <c r="O135" s="2">
@@ -8297,13 +8297,13 @@
         <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D136" s="2">
         <v>67</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F136" s="2">
         <v>834</v>
@@ -8312,7 +8312,7 @@
         <v>119</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I136" s="2">
         <v>34.805211819999997</v>
@@ -8327,7 +8327,7 @@
         <v>22</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N136" s="1"/>
       <c r="O136" s="2">
@@ -8342,13 +8342,13 @@
         <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D137" s="2">
         <v>67</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F137" s="2">
         <v>854</v>
@@ -8357,7 +8357,7 @@
         <v>120</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I137" s="2">
         <v>-1.7428438289999999</v>
@@ -8372,7 +8372,7 @@
         <v>22</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N137" s="1"/>
       <c r="O137" s="2">
@@ -8387,13 +8387,13 @@
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D138" s="2">
         <v>67</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F138" s="2">
         <v>28</v>
@@ -8402,7 +8402,7 @@
         <v>123</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I138" s="2">
         <v>-61.799975500000002</v>
@@ -8417,7 +8417,7 @@
         <v>22</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N138" s="1"/>
       <c r="O138" s="2">
@@ -8432,13 +8432,13 @@
         <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D139" s="2">
         <v>67</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F139" s="2">
         <v>44</v>
@@ -8447,7 +8447,7 @@
         <v>125</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I139" s="2">
         <v>-78.051116629999996</v>
@@ -8462,7 +8462,7 @@
         <v>22</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N139" s="1"/>
       <c r="O139" s="2">
@@ -8477,13 +8477,13 @@
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D140" s="2">
         <v>67</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F140" s="2">
         <v>52</v>
@@ -8492,7 +8492,7 @@
         <v>126</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I140" s="2">
         <v>-59.534648900000001</v>
@@ -8507,7 +8507,7 @@
         <v>22</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="2">
@@ -8522,13 +8522,13 @@
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D141" s="2">
         <v>67</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F141" s="2">
         <v>84</v>
@@ -8537,7 +8537,7 @@
         <v>129</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I141" s="2">
         <v>-88.701995539999999</v>
@@ -8552,7 +8552,7 @@
         <v>22</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N141" s="1"/>
       <c r="O141" s="2">
@@ -8567,13 +8567,13 @@
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D142" s="2">
         <v>67</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F142" s="2">
         <v>136</v>
@@ -8582,7 +8582,7 @@
         <v>130</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I142" s="2">
         <v>-81.167405590000001</v>
@@ -8597,7 +8597,7 @@
         <v>22</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N142" s="1"/>
       <c r="O142" s="2">
@@ -8612,13 +8612,13 @@
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D143" s="2">
         <v>67</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F143" s="2">
         <v>328</v>
@@ -8627,7 +8627,7 @@
         <v>141</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I143" s="2">
         <v>-58.97322037</v>
@@ -8642,7 +8642,7 @@
         <v>22</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="2">
@@ -8657,13 +8657,13 @@
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D144" s="2">
         <v>67</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F144" s="2">
         <v>388</v>
@@ -8672,7 +8672,7 @@
         <v>144</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I144" s="2">
         <v>-77.310684089999995</v>
@@ -8687,7 +8687,7 @@
         <v>22</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="2">
@@ -8702,13 +8702,13 @@
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D145" s="2">
         <v>67</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F145" s="2">
         <v>659</v>
@@ -8717,7 +8717,7 @@
         <v>150</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I145" s="2">
         <v>-62.766286129999997</v>
@@ -8732,7 +8732,7 @@
         <v>22</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="2">
@@ -8747,13 +8747,13 @@
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D146" s="2">
         <v>67</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F146" s="2">
         <v>660</v>
@@ -8762,7 +8762,7 @@
         <v>151</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I146" s="2">
         <v>-63.056516119999998</v>
@@ -8777,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="2">
@@ -8792,13 +8792,13 @@
         <v>7</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D147" s="2">
         <v>67</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F147" s="2">
         <v>662</v>
@@ -8807,7 +8807,7 @@
         <v>152</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I147" s="2">
         <v>-60.965295529999999</v>
@@ -8822,7 +8822,7 @@
         <v>22</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="2">
@@ -8837,13 +8837,13 @@
         <v>7</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D148" s="2">
         <v>67</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F148" s="2">
         <v>31</v>
@@ -8852,7 +8852,7 @@
         <v>157</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I148" s="2">
         <v>50.010647249999998</v>
@@ -8861,13 +8861,13 @@
         <v>40.392295439999998</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L148" s="2">
         <v>22</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="2">
@@ -8882,13 +8882,13 @@
         <v>7</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D149" s="2">
         <v>67</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F149" s="2">
         <v>268</v>
@@ -8897,7 +8897,7 @@
         <v>159</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I149" s="2">
         <v>43.371361499999999</v>
@@ -8906,13 +8906,13 @@
         <v>42.048130280000002</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L149" s="2">
         <v>22</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="2">
@@ -8927,13 +8927,13 @@
         <v>7</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D150" s="2">
         <v>67</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F150" s="2">
         <v>398</v>
@@ -8942,7 +8942,7 @@
         <v>160</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I150" s="2">
         <v>66.653591590000005</v>
@@ -8951,13 +8951,13 @@
         <v>48.019634940000003</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L150" s="2">
         <v>22</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="2">
@@ -8972,13 +8972,13 @@
         <v>7</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D151" s="2">
         <v>67</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F151" s="2">
         <v>417</v>
@@ -8987,7 +8987,7 @@
         <v>161</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I151" s="2">
         <v>74.523248390000006</v>
@@ -8996,13 +8996,13 @@
         <v>41.462045160000002</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L151" s="2">
         <v>22</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="2">
@@ -9017,13 +9017,13 @@
         <v>7</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D152" s="2">
         <v>67</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F152" s="2">
         <v>860</v>
@@ -9032,7 +9032,7 @@
         <v>164</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I152" s="2">
         <v>63.119445579999997</v>
@@ -9041,13 +9041,13 @@
         <v>41.775605179999999</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L152" s="2">
         <v>22</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="2">
@@ -9062,13 +9062,13 @@
         <v>7</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D153" s="2">
         <v>67</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F153" s="2">
         <v>275</v>
@@ -9077,7 +9077,7 @@
         <v>166</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I153" s="2">
         <v>35.256941220000002</v>
@@ -9086,13 +9086,13 @@
         <v>31.943479329999999</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L153" s="2">
         <v>22</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="2">
@@ -9107,13 +9107,13 @@
         <v>7</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D154" s="2">
         <v>67</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F154" s="2">
         <v>422</v>
@@ -9122,7 +9122,7 @@
         <v>170</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I154" s="2">
         <v>35.893917109999997</v>
@@ -9131,13 +9131,13 @@
         <v>33.921524580000003</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L154" s="2">
         <v>22</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="2">
@@ -9152,13 +9152,13 @@
         <v>7</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D155" s="2">
         <v>67</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F155" s="2">
         <v>512</v>
@@ -9167,7 +9167,7 @@
         <v>171</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I155" s="2">
         <v>57.877434819999998</v>
@@ -9176,13 +9176,13 @@
         <v>21.988056140000001</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L155" s="2">
         <v>22</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="2">
@@ -9197,13 +9197,13 @@
         <v>7</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D156" s="2">
         <v>67</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F156" s="2">
         <v>634</v>
@@ -9212,7 +9212,7 @@
         <v>172</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I156" s="2">
         <v>51.19152467</v>
@@ -9221,13 +9221,13 @@
         <v>25.283553789999999</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L156" s="2">
         <v>22</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="2">
@@ -9242,13 +9242,13 @@
         <v>7</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D157" s="2">
         <v>67</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F157" s="2">
         <v>682</v>
@@ -9257,7 +9257,7 @@
         <v>173</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I157" s="2">
         <v>44.547633470000001</v>
@@ -9266,13 +9266,13 @@
         <v>24.12594211</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L157" s="2">
         <v>22</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="2">
@@ -9287,13 +9287,13 @@
         <v>7</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D158" s="2">
         <v>67</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F158" s="2">
         <v>792</v>
@@ -9302,7 +9302,7 @@
         <v>175</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I158" s="2">
         <v>35.428903290000001</v>
@@ -9311,13 +9311,13 @@
         <v>38.989968400000002</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L158" s="2">
         <v>22</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="2">
@@ -9332,13 +9332,13 @@
         <v>7</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D159" s="2">
         <v>67</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F159" s="2">
         <v>887</v>
@@ -9347,7 +9347,7 @@
         <v>176</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I159" s="2">
         <v>45.223891430000002</v>
@@ -9356,13 +9356,13 @@
         <v>15.22242099</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L159" s="2">
         <v>22</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="2">
@@ -9377,13 +9377,13 @@
         <v>7</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D160" s="2">
         <v>67</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F160" s="2">
         <v>96</v>
@@ -9392,7 +9392,7 @@
         <v>177</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I160" s="2">
         <v>114.6288563</v>
@@ -9401,13 +9401,13 @@
         <v>4.4973698400000002</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L160" s="2">
         <v>22</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="2">
@@ -9422,13 +9422,13 @@
         <v>7</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D161" s="2">
         <v>67</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F161" s="2">
         <v>104</v>
@@ -9437,7 +9437,7 @@
         <v>178</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I161" s="2">
         <v>96.51752295</v>
@@ -9446,13 +9446,13 @@
         <v>21.193328820000001</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L161" s="2">
         <v>22</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="2">
@@ -9467,13 +9467,13 @@
         <v>7</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D162" s="2">
         <v>67</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F162" s="2">
         <v>116</v>
@@ -9482,7 +9482,7 @@
         <v>179</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I162" s="2">
         <v>104.922836</v>
@@ -9491,13 +9491,13 @@
         <v>12.71163737</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L162" s="2">
         <v>22</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="2">
@@ -9512,13 +9512,13 @@
         <v>7</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D163" s="2">
         <v>67</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F163" s="2">
         <v>360</v>
@@ -9527,7 +9527,7 @@
         <v>180</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I163" s="2">
         <v>113.9174</v>
@@ -9536,13 +9536,13 @@
         <v>-0.99458220399999997</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L163" s="2">
         <v>22</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="2">
@@ -9557,13 +9557,13 @@
         <v>7</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D164" s="2">
         <v>67</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F164" s="2">
         <v>418</v>
@@ -9572,7 +9572,7 @@
         <v>181</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I164" s="2">
         <v>101.99019680000001</v>
@@ -9581,13 +9581,13 @@
         <v>20.274827729999998</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L164" s="2">
         <v>22</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="2">
@@ -9602,13 +9602,13 @@
         <v>7</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D165" s="2">
         <v>67</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F165" s="2">
         <v>458</v>
@@ -9617,7 +9617,7 @@
         <v>182</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I165" s="2">
         <v>116.83463140000001</v>
@@ -9626,13 +9626,13 @@
         <v>5.452415309</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L165" s="2">
         <v>22</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="2">
@@ -9647,13 +9647,13 @@
         <v>7</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D166" s="2">
         <v>67</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F166" s="2">
         <v>608</v>
@@ -9662,7 +9662,7 @@
         <v>183</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I166" s="2">
         <v>120.86014179999999</v>
@@ -9671,13 +9671,13 @@
         <v>14.16591706</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L166" s="2">
         <v>22</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="2">
@@ -9692,13 +9692,13 @@
         <v>7</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D167" s="2">
         <v>67</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F167" s="2">
         <v>702</v>
@@ -9707,7 +9707,7 @@
         <v>185</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I167" s="2">
         <v>103.8107883</v>
@@ -9716,13 +9716,13 @@
         <v>1.3610091550000001</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L167" s="2">
         <v>22</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="2">
@@ -9737,13 +9737,13 @@
         <v>7</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D168" s="2">
         <v>67</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F168" s="2">
         <v>764</v>
@@ -9752,7 +9752,7 @@
         <v>187</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I168" s="2">
         <v>101.0202951</v>
@@ -9761,13 +9761,13 @@
         <v>15.13089239</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L168" s="2">
         <v>22</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="2">
@@ -9782,13 +9782,13 @@
         <v>7</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D169" s="2">
         <v>67</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F169" s="2">
         <v>156</v>
@@ -9797,7 +9797,7 @@
         <v>188</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I169" s="2">
         <v>104.1403375</v>
@@ -9806,13 +9806,13 @@
         <v>32.309552170000003</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L169" s="2">
         <v>22</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="2">
@@ -9827,22 +9827,22 @@
         <v>7</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D170" s="2">
         <v>67</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F170" s="2">
         <v>446</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I170" s="2">
         <v>113.5665388</v>
@@ -9851,13 +9851,13 @@
         <v>22.1237259</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L170" s="2">
         <v>22</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="2">
@@ -9872,13 +9872,13 @@
         <v>7</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D171" s="2">
         <v>67</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F171" s="2">
         <v>826</v>
@@ -9887,7 +9887,7 @@
         <v>54</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I171" s="2">
         <v>-2.2383053899999998</v>
@@ -9896,16 +9896,16 @@
         <v>53.276917570000002</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L171" s="1">
         <v>23</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O171" s="2">
         <v>2017</v>
@@ -9919,13 +9919,13 @@
         <v>7</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D172" s="2">
         <v>67</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F172" s="2">
         <v>705</v>
@@ -9934,7 +9934,7 @@
         <v>48</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I172" s="2">
         <v>14.82209486</v>
@@ -9943,16 +9943,16 @@
         <v>46.11958061</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L172" s="1">
         <v>23</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="O172" s="2">
         <v>2017</v>
@@ -9966,13 +9966,13 @@
         <v>7</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D173" s="2">
         <v>67</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F173" s="2">
         <v>703</v>
@@ -9981,7 +9981,7 @@
         <v>47</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I173" s="2">
         <v>19.48495604</v>
@@ -9990,16 +9990,16 @@
         <v>48.707414460000003</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L173" s="1">
         <v>23</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O173" s="2">
         <v>2017</v>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D174" s="2">
         <v>67</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F174" s="2">
         <v>344</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I174" s="2">
         <v>114.0266445</v>
@@ -10037,16 +10037,16 @@
         <v>22.417499339999999</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L174" s="1">
         <v>23</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O174" s="2">
         <v>2017</v>
@@ -10060,13 +10060,13 @@
         <v>7</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D175" s="2">
         <v>67</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F175" s="2">
         <v>212</v>
@@ -10075,7 +10075,7 @@
         <v>135</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I175" s="2">
         <v>-61.349375600000002</v>
@@ -10090,10 +10090,10 @@
         <v>23</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O175" s="2">
         <v>2017</v>
@@ -10107,13 +10107,13 @@
         <v>7</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D176" s="2">
         <v>67</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F176" s="2">
         <v>894</v>
@@ -10122,7 +10122,7 @@
         <v>121</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I176" s="2">
         <v>27.850328999999999</v>
@@ -10137,10 +10137,10 @@
         <v>23</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O176" s="2">
         <v>2017</v>
@@ -10154,13 +10154,13 @@
         <v>7</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D177" s="2">
         <v>67</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F177" s="2">
         <v>516</v>
@@ -10169,7 +10169,7 @@
         <v>105</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I177" s="2">
         <v>17.219078849999999</v>
@@ -10184,10 +10184,10 @@
         <v>23</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O177" s="2">
         <v>2017</v>
@@ -10201,13 +10201,13 @@
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D178" s="2">
         <v>67</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F178" s="2">
         <v>616</v>
@@ -10216,7 +10216,7 @@
         <v>42</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I178" s="2">
         <v>19.40660158</v>
@@ -10225,16 +10225,16 @@
         <v>52.122673300000002</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L178" s="1">
         <v>23</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O178" s="2">
         <v>2017</v>
@@ -10248,13 +10248,13 @@
         <v>7</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D179" s="2">
         <v>67</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F179" s="2">
         <v>51</v>
@@ -10263,7 +10263,7 @@
         <v>158</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I179" s="2">
         <v>44.938393169999998</v>
@@ -10272,16 +10272,16 @@
         <v>40.294997410000001</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L179" s="1">
         <v>23</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O179" s="2">
         <v>2017</v>
@@ -10295,13 +10295,13 @@
         <v>7</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D180" s="2">
         <v>67</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F180" s="2">
         <v>496</v>
@@ -10310,7 +10310,7 @@
         <v>190</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I180" s="2">
         <v>103.0728057</v>
@@ -10319,16 +10319,16 @@
         <v>46.838920539999997</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L180" s="1">
         <v>23</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O180" s="2">
         <v>2017</v>
@@ -10342,13 +10342,13 @@
         <v>7</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D181" s="2">
         <v>67</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F181" s="2">
         <v>48</v>
@@ -10357,7 +10357,7 @@
         <v>165</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I181" s="2">
         <v>50.5490754</v>
@@ -10366,16 +10366,16 @@
         <v>26.044077470000001</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L181" s="1">
         <v>23</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O181" s="2">
         <v>2017</v>
@@ -10389,13 +10389,13 @@
         <v>7</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D182" s="2">
         <v>67</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F182" s="2">
         <v>788</v>
@@ -10404,7 +10404,7 @@
         <v>59</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I182" s="2">
         <v>9.5727374110000003</v>
@@ -10413,16 +10413,16 @@
         <v>34.114399710000001</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L182" s="1">
         <v>23</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O182" s="2">
         <v>2017</v>
@@ -10436,13 +10436,13 @@
         <v>7</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D183" s="2">
         <v>67</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F183" s="2">
         <v>470</v>
@@ -10451,7 +10451,7 @@
         <v>36</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I183" s="2">
         <v>14.44617519</v>
@@ -10460,16 +10460,16 @@
         <v>35.891942749999998</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L183" s="1">
         <v>23</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O183" s="2">
         <v>2017</v>
@@ -10483,13 +10483,13 @@
         <v>7</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D184" s="2">
         <v>67</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F184" s="2">
         <v>570</v>
@@ -10498,7 +10498,7 @@
         <v>68</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I184" s="2">
         <v>-169.8601693</v>
@@ -10507,16 +10507,16 @@
         <v>-19.050004749999999</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L184" s="1">
         <v>23</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O184" s="2">
         <v>2017</v>
@@ -10530,13 +10530,13 @@
         <v>7</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D185" s="2">
         <v>67</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F185" s="2">
         <v>752</v>
@@ -10545,7 +10545,7 @@
         <v>50</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I185" s="2">
         <v>14.3775338</v>
@@ -10554,16 +10554,16 @@
         <v>60.601031089999999</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L185" s="1">
         <v>23</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="O185" s="2">
         <v>2017</v>
@@ -10577,13 +10577,13 @@
         <v>7</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D186" s="2">
         <v>67</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F186" s="2">
         <v>233</v>
@@ -10592,7 +10592,7 @@
         <v>20</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I186" s="2">
         <v>25.84093481</v>
@@ -10601,16 +10601,16 @@
         <v>58.684871719999997</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L186" s="1">
         <v>23</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O186" s="2">
         <v>2017</v>
@@ -10624,22 +10624,22 @@
         <v>7</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D187" s="2">
         <v>67</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F187" s="2">
         <v>203</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I187" s="2">
         <v>15.33151382</v>
@@ -10648,16 +10648,16 @@
         <v>49.739138709999999</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L187" s="1">
         <v>23</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O187" s="2">
         <v>2017</v>
@@ -10671,13 +10671,13 @@
         <v>7</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D188" s="2">
         <v>67</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F188" s="2">
         <v>882</v>
@@ -10686,7 +10686,7 @@
         <v>75</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I188" s="2">
         <v>-172.4430749</v>
@@ -10695,16 +10695,16 @@
         <v>-13.61541469</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L188" s="1">
         <v>23</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O188" s="2">
         <v>2017</v>
@@ -10718,13 +10718,13 @@
         <v>7</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D189" s="2">
         <v>67</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F189" s="2">
         <v>554</v>
@@ -10733,7 +10733,7 @@
         <v>40</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I189" s="2">
         <v>170.47556729999999</v>
@@ -10742,16 +10742,16 @@
         <v>-43.987215679999998</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L189" s="1">
         <v>23</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="O189" s="2">
         <v>2017</v>
@@ -10765,13 +10765,13 @@
         <v>7</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D190" s="2">
         <v>67</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F190" s="2">
         <v>270</v>
@@ -10780,7 +10780,7 @@
         <v>92</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I190" s="2">
         <v>-15.39944785</v>
@@ -10795,10 +10795,10 @@
         <v>23</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O190" s="2">
         <v>2017</v>
@@ -10812,13 +10812,13 @@
         <v>7</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D191" s="2">
         <v>67</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F191" s="2">
         <v>410</v>
@@ -10827,7 +10827,7 @@
         <v>189</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I191" s="2">
         <v>127.8610254</v>
@@ -10836,16 +10836,16 @@
         <v>36.452010229999999</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L191" s="1">
         <v>23</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N191" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O191" s="2">
         <v>2017</v>
@@ -10859,13 +10859,13 @@
         <v>7</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D192" s="2">
         <v>67</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F192" s="2">
         <v>710</v>
@@ -10874,7 +10874,7 @@
         <v>114</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I192" s="2">
         <v>24.671843549999998</v>
@@ -10889,10 +10889,10 @@
         <v>23</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O192" s="2">
         <v>2017</v>
@@ -10906,13 +10906,13 @@
         <v>7</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D193" s="2">
         <v>67</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F193" s="2">
         <v>694</v>
@@ -10921,7 +10921,7 @@
         <v>113</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I193" s="2">
         <v>-11.783065840000001</v>
@@ -10936,10 +10936,10 @@
         <v>23</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O193" s="2">
         <v>2017</v>
@@ -10960,12 +10960,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11192,17 +11191,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9B291-8724-4472-BF66-1344F4601067}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD49AF4E-97CA-4E5D-BBDF-E508EB1841A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11227,11 +11229,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD49AF4E-97CA-4E5D-BBDF-E508EB1841A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9B291-8724-4472-BF66-1344F4601067}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/source_data/Qual_7_data.xlsx
+++ b/source_data/Qual_7_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040B3C8-5B20-4B28-A3CC-99C9AE9DF15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8835A-3AC6-43C9-8DA0-490C2FD0F6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 - Existence of law on gender " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7 - Existence of law on gender '!$A$1:$O$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7 - Existence of law on gender '!$A$1:$P$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="435">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1335,6 +1335,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TIME_PERIOD</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O193"/>
+  <dimension ref="A1:P193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="H193" workbookViewId="0">
+      <selection activeCell="L193" sqref="L193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,14 +2208,15 @@
     <col min="8" max="8" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>426</v>
       </c>
@@ -2247,19 +2251,22 @@
         <v>399</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>60</v>
       </c>
@@ -2293,18 +2300,21 @@
       <c r="K2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M2" s="1">
         <v>21</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+      <c r="P2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -2338,18 +2348,21 @@
       <c r="K3" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="1">
         <v>21</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="1"/>
+      <c r="P3" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>60</v>
       </c>
@@ -2383,18 +2396,21 @@
       <c r="K4" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M4" s="1">
         <v>21</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+      <c r="P4" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>60</v>
       </c>
@@ -2428,18 +2444,21 @@
       <c r="K5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M5" s="1">
         <v>21</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="1"/>
+      <c r="P5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>60</v>
       </c>
@@ -2473,18 +2492,21 @@
       <c r="K6" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M6" s="1">
         <v>21</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="1"/>
+      <c r="P6" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -2518,18 +2540,21 @@
       <c r="K7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M7" s="1">
         <v>21</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+      <c r="P7" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -2563,18 +2588,21 @@
       <c r="K8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M8" s="1">
         <v>21</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+      <c r="P8" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>60</v>
       </c>
@@ -2608,18 +2636,21 @@
       <c r="K9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M9" s="1">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -2653,18 +2684,21 @@
       <c r="K10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M10" s="1">
         <v>21</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+      <c r="P10" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60</v>
       </c>
@@ -2698,18 +2732,21 @@
       <c r="K11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M11" s="1">
         <v>21</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -2743,18 +2780,21 @@
       <c r="K12" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M12" s="1">
         <v>21</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -2788,18 +2828,21 @@
       <c r="K13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M13" s="1">
         <v>21</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+      <c r="P13" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>60</v>
       </c>
@@ -2833,18 +2876,21 @@
       <c r="K14" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M14" s="1">
         <v>21</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+      <c r="P14" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -2878,18 +2924,21 @@
       <c r="K15" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M15" s="1">
         <v>21</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O15" s="1"/>
+      <c r="P15" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>60</v>
       </c>
@@ -2923,18 +2972,21 @@
       <c r="K16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M16" s="1">
         <v>21</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O16" s="1"/>
+      <c r="P16" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>60</v>
       </c>
@@ -2968,18 +3020,21 @@
       <c r="K17" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M17" s="1">
         <v>21</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+      <c r="P17" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>60</v>
       </c>
@@ -3013,18 +3068,21 @@
       <c r="K18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M18" s="1">
         <v>21</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+      <c r="P18" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>60</v>
       </c>
@@ -3058,18 +3116,21 @@
       <c r="K19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M19" s="1">
         <v>21</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+      <c r="P19" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>60</v>
       </c>
@@ -3103,18 +3164,21 @@
       <c r="K20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M20" s="1">
         <v>21</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+      <c r="P20" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>60</v>
       </c>
@@ -3148,18 +3212,21 @@
       <c r="K21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M21" s="1">
         <v>21</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="1"/>
+      <c r="P21" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>60</v>
       </c>
@@ -3193,18 +3260,21 @@
       <c r="K22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M22" s="1">
         <v>21</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+      <c r="P22" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>60</v>
       </c>
@@ -3238,18 +3308,21 @@
       <c r="K23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M23" s="1">
         <v>21</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="1"/>
+      <c r="P23" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>60</v>
       </c>
@@ -3283,18 +3356,21 @@
       <c r="K24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M24" s="1">
         <v>21</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+      <c r="P24" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>60</v>
       </c>
@@ -3328,18 +3404,21 @@
       <c r="K25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M25" s="1">
         <v>21</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+      <c r="P25" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>60</v>
       </c>
@@ -3373,18 +3452,21 @@
       <c r="K26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M26" s="1">
         <v>21</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+      <c r="P26" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>60</v>
       </c>
@@ -3418,18 +3500,21 @@
       <c r="K27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M27" s="1">
         <v>21</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+      <c r="P27" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>60</v>
       </c>
@@ -3463,18 +3548,21 @@
       <c r="K28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M28" s="1">
         <v>21</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="1"/>
+      <c r="P28" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>60</v>
       </c>
@@ -3508,18 +3596,21 @@
       <c r="K29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M29" s="1">
         <v>21</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="1"/>
+      <c r="P29" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>60</v>
       </c>
@@ -3553,18 +3644,21 @@
       <c r="K30" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="1">
         <v>21</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="1"/>
+      <c r="P30" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -3598,18 +3692,21 @@
       <c r="K31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M31" s="1">
         <v>21</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="1"/>
+      <c r="P31" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>60</v>
       </c>
@@ -3643,18 +3740,21 @@
       <c r="K32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M32" s="1">
         <v>21</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="1"/>
+      <c r="P32" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>60</v>
       </c>
@@ -3688,18 +3788,21 @@
       <c r="K33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L33" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M33" s="1">
         <v>21</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="1"/>
+      <c r="P33" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -3733,18 +3836,21 @@
       <c r="K34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M34" s="1">
         <v>21</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="1"/>
+      <c r="P34" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>60</v>
       </c>
@@ -3778,18 +3884,21 @@
       <c r="K35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L35" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="1">
         <v>21</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="1"/>
+      <c r="P35" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>60</v>
       </c>
@@ -3823,18 +3932,21 @@
       <c r="K36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L36" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="1">
         <v>21</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="1"/>
+      <c r="P36" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -3868,18 +3980,21 @@
       <c r="K37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L37" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M37" s="1">
         <v>21</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="1"/>
+      <c r="P37" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>60</v>
       </c>
@@ -3913,18 +4028,21 @@
       <c r="K38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M38" s="1">
         <v>21</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="1"/>
+      <c r="P38" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>60</v>
       </c>
@@ -3958,18 +4076,21 @@
       <c r="K39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M39" s="1">
         <v>21</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="1"/>
+      <c r="P39" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>60</v>
       </c>
@@ -4003,18 +4124,21 @@
       <c r="K40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M40" s="1">
         <v>21</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="1"/>
+      <c r="P40" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>60</v>
       </c>
@@ -4048,18 +4172,21 @@
       <c r="K41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M41" s="1">
         <v>21</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="1"/>
+      <c r="P41" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>60</v>
       </c>
@@ -4093,18 +4220,21 @@
       <c r="K42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M42" s="1">
         <v>21</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+      <c r="P42" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>60</v>
       </c>
@@ -4138,18 +4268,21 @@
       <c r="K43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L43" s="1">
+      <c r="L43" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M43" s="1">
         <v>21</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N43" s="1"/>
-      <c r="O43" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="1"/>
+      <c r="P43" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>60</v>
       </c>
@@ -4183,18 +4316,21 @@
       <c r="K44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L44" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M44" s="1">
         <v>21</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="1"/>
+      <c r="P44" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>60</v>
       </c>
@@ -4228,18 +4364,21 @@
       <c r="K45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M45" s="1">
         <v>21</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="1"/>
+      <c r="P45" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>60</v>
       </c>
@@ -4273,18 +4412,21 @@
       <c r="K46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M46" s="1">
         <v>21</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="1"/>
+      <c r="P46" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>60</v>
       </c>
@@ -4318,18 +4460,21 @@
       <c r="K47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M47" s="1">
         <v>21</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="1"/>
+      <c r="P47" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>60</v>
       </c>
@@ -4363,18 +4508,21 @@
       <c r="K48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M48" s="1">
         <v>21</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="1"/>
+      <c r="P48" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>60</v>
       </c>
@@ -4408,18 +4556,21 @@
       <c r="K49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M49" s="1">
         <v>21</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="1"/>
+      <c r="P49" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>60</v>
       </c>
@@ -4453,18 +4604,21 @@
       <c r="K50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M50" s="1">
         <v>21</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N50" s="1"/>
-      <c r="O50" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="1"/>
+      <c r="P50" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -4498,18 +4652,21 @@
       <c r="K51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M51" s="1">
         <v>21</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="1"/>
+      <c r="P51" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>60</v>
       </c>
@@ -4543,18 +4700,21 @@
       <c r="K52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M52" s="1">
         <v>21</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N52" s="1"/>
-      <c r="O52" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="1"/>
+      <c r="P52" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>60</v>
       </c>
@@ -4588,18 +4748,21 @@
       <c r="K53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M53" s="1">
         <v>21</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N53" s="1"/>
-      <c r="O53" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="1"/>
+      <c r="P53" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>60</v>
       </c>
@@ -4633,18 +4796,21 @@
       <c r="K54" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M54" s="1">
         <v>21</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="1"/>
+      <c r="P54" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>60</v>
       </c>
@@ -4678,18 +4844,21 @@
       <c r="K55" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M55" s="1">
         <v>21</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O55" s="1"/>
+      <c r="P55" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>60</v>
       </c>
@@ -4723,18 +4892,21 @@
       <c r="K56" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M56" s="1">
         <v>21</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O56" s="1"/>
+      <c r="P56" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>60</v>
       </c>
@@ -4768,18 +4940,21 @@
       <c r="K57" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M57" s="1">
         <v>21</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O57" s="1"/>
+      <c r="P57" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>60</v>
       </c>
@@ -4813,18 +4988,21 @@
       <c r="K58" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M58" s="1">
         <v>21</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N58" s="1"/>
-      <c r="O58" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O58" s="1"/>
+      <c r="P58" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -4858,18 +5036,21 @@
       <c r="K59" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M59" s="1">
         <v>21</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N59" s="1"/>
-      <c r="O59" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="1"/>
+      <c r="P59" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -4903,18 +5084,21 @@
       <c r="K60" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M60" s="1">
         <v>21</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="1"/>
+      <c r="P60" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4948,18 +5132,21 @@
       <c r="K61" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M61" s="1">
         <v>21</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O61" s="1"/>
+      <c r="P61" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -4994,17 +5181,20 @@
         <v>198</v>
       </c>
       <c r="L62" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M62" s="2">
         <v>22</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N62" s="1"/>
-      <c r="O62" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O62" s="1"/>
+      <c r="P62" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -5039,17 +5229,20 @@
         <v>198</v>
       </c>
       <c r="L63" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M63" s="2">
         <v>22</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="N63" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O63" s="1"/>
+      <c r="P63" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -5084,17 +5277,20 @@
         <v>198</v>
       </c>
       <c r="L64" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M64" s="2">
         <v>22</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N64" s="1"/>
-      <c r="O64" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O64" s="1"/>
+      <c r="P64" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -5129,17 +5325,20 @@
         <v>198</v>
       </c>
       <c r="L65" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M65" s="2">
         <v>22</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O65" s="1"/>
+      <c r="P65" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -5174,17 +5373,20 @@
         <v>198</v>
       </c>
       <c r="L66" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M66" s="2">
         <v>22</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N66" s="1"/>
-      <c r="O66" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O66" s="1"/>
+      <c r="P66" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>60</v>
       </c>
@@ -5219,17 +5421,20 @@
         <v>207</v>
       </c>
       <c r="L67" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M67" s="2">
         <v>22</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="N67" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N67" s="1"/>
-      <c r="O67" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O67" s="1"/>
+      <c r="P67" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>60</v>
       </c>
@@ -5264,17 +5469,20 @@
         <v>209</v>
       </c>
       <c r="L68" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M68" s="2">
         <v>22</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O68" s="1"/>
+      <c r="P68" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>60</v>
       </c>
@@ -5309,17 +5517,20 @@
         <v>207</v>
       </c>
       <c r="L69" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M69" s="2">
         <v>22</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="N69" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N69" s="1"/>
-      <c r="O69" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O69" s="1"/>
+      <c r="P69" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>60</v>
       </c>
@@ -5354,17 +5565,20 @@
         <v>207</v>
       </c>
       <c r="L70" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M70" s="2">
         <v>22</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="N70" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N70" s="1"/>
-      <c r="O70" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O70" s="1"/>
+      <c r="P70" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>60</v>
       </c>
@@ -5399,17 +5613,20 @@
         <v>207</v>
       </c>
       <c r="L71" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M71" s="2">
         <v>22</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="N71" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N71" s="1"/>
-      <c r="O71" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O71" s="1"/>
+      <c r="P71" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>60</v>
       </c>
@@ -5444,17 +5661,20 @@
         <v>207</v>
       </c>
       <c r="L72" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M72" s="2">
         <v>22</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="N72" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N72" s="1"/>
-      <c r="O72" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O72" s="1"/>
+      <c r="P72" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>60</v>
       </c>
@@ -5489,17 +5709,20 @@
         <v>207</v>
       </c>
       <c r="L73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M73" s="2">
         <v>22</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="N73" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O73" s="1"/>
+      <c r="P73" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>60</v>
       </c>
@@ -5534,17 +5757,20 @@
         <v>207</v>
       </c>
       <c r="L74" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M74" s="2">
         <v>22</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="N74" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O74" s="1"/>
+      <c r="P74" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>60</v>
       </c>
@@ -5579,17 +5805,20 @@
         <v>218</v>
       </c>
       <c r="L75" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M75" s="2">
         <v>22</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N75" s="1"/>
-      <c r="O75" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O75" s="1"/>
+      <c r="P75" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>60</v>
       </c>
@@ -5624,17 +5853,20 @@
         <v>207</v>
       </c>
       <c r="L76" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M76" s="2">
         <v>22</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="N76" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N76" s="1"/>
-      <c r="O76" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O76" s="1"/>
+      <c r="P76" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>60</v>
       </c>
@@ -5669,17 +5901,20 @@
         <v>207</v>
       </c>
       <c r="L77" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M77" s="2">
         <v>22</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="N77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O77" s="1"/>
+      <c r="P77" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>60</v>
       </c>
@@ -5714,17 +5949,20 @@
         <v>207</v>
       </c>
       <c r="L78" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M78" s="2">
         <v>22</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="N78" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N78" s="1"/>
-      <c r="O78" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O78" s="1"/>
+      <c r="P78" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>60</v>
       </c>
@@ -5759,17 +5997,20 @@
         <v>207</v>
       </c>
       <c r="L79" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M79" s="2">
         <v>22</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="N79" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N79" s="1"/>
-      <c r="O79" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O79" s="1"/>
+      <c r="P79" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>60</v>
       </c>
@@ -5804,17 +6045,20 @@
         <v>207</v>
       </c>
       <c r="L80" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M80" s="2">
         <v>22</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="N80" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O80" s="1"/>
+      <c r="P80" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>60</v>
       </c>
@@ -5849,17 +6093,20 @@
         <v>207</v>
       </c>
       <c r="L81" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M81" s="2">
         <v>22</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="N81" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N81" s="1"/>
-      <c r="O81" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O81" s="1"/>
+      <c r="P81" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>60</v>
       </c>
@@ -5894,17 +6141,20 @@
         <v>218</v>
       </c>
       <c r="L82" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M82" s="2">
         <v>22</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="N82" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O82" s="1"/>
+      <c r="P82" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>60</v>
       </c>
@@ -5939,17 +6189,20 @@
         <v>233</v>
       </c>
       <c r="L83" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M83" s="2">
         <v>22</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="N83" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O83" s="1"/>
+      <c r="P83" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>60</v>
       </c>
@@ -5984,17 +6237,20 @@
         <v>207</v>
       </c>
       <c r="L84" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M84" s="2">
         <v>22</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="N84" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O84" s="1"/>
+      <c r="P84" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>60</v>
       </c>
@@ -6029,17 +6285,20 @@
         <v>207</v>
       </c>
       <c r="L85" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M85" s="2">
         <v>22</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N85" s="1"/>
-      <c r="O85" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O85" s="1"/>
+      <c r="P85" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>60</v>
       </c>
@@ -6074,17 +6333,20 @@
         <v>207</v>
       </c>
       <c r="L86" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M86" s="2">
         <v>22</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="N86" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O86" s="1"/>
+      <c r="P86" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>60</v>
       </c>
@@ -6119,17 +6381,20 @@
         <v>207</v>
       </c>
       <c r="L87" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M87" s="2">
         <v>22</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="N87" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N87" s="1"/>
-      <c r="O87" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O87" s="1"/>
+      <c r="P87" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>60</v>
       </c>
@@ -6164,17 +6429,20 @@
         <v>207</v>
       </c>
       <c r="L88" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M88" s="2">
         <v>22</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="N88" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N88" s="1"/>
-      <c r="O88" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O88" s="1"/>
+      <c r="P88" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>60</v>
       </c>
@@ -6209,17 +6477,20 @@
         <v>207</v>
       </c>
       <c r="L89" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M89" s="2">
         <v>22</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="N89" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N89" s="1"/>
-      <c r="O89" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O89" s="1"/>
+      <c r="P89" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>60</v>
       </c>
@@ -6254,17 +6525,20 @@
         <v>207</v>
       </c>
       <c r="L90" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M90" s="2">
         <v>22</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="N90" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N90" s="1"/>
-      <c r="O90" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O90" s="1"/>
+      <c r="P90" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>60</v>
       </c>
@@ -6299,17 +6573,20 @@
         <v>207</v>
       </c>
       <c r="L91" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M91" s="2">
         <v>22</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="N91" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N91" s="1"/>
-      <c r="O91" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O91" s="1"/>
+      <c r="P91" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>60</v>
       </c>
@@ -6344,17 +6621,20 @@
         <v>207</v>
       </c>
       <c r="L92" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M92" s="2">
         <v>22</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="N92" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N92" s="1"/>
-      <c r="O92" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O92" s="1"/>
+      <c r="P92" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>60</v>
       </c>
@@ -6389,17 +6669,20 @@
         <v>207</v>
       </c>
       <c r="L93" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M93" s="2">
         <v>22</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="N93" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N93" s="1"/>
-      <c r="O93" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O93" s="1"/>
+      <c r="P93" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>60</v>
       </c>
@@ -6434,17 +6717,20 @@
         <v>207</v>
       </c>
       <c r="L94" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M94" s="2">
         <v>22</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="N94" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N94" s="1"/>
-      <c r="O94" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O94" s="1"/>
+      <c r="P94" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>60</v>
       </c>
@@ -6479,17 +6765,20 @@
         <v>207</v>
       </c>
       <c r="L95" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M95" s="2">
         <v>22</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="N95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N95" s="1"/>
-      <c r="O95" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O95" s="1"/>
+      <c r="P95" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>60</v>
       </c>
@@ -6524,17 +6813,20 @@
         <v>218</v>
       </c>
       <c r="L96" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M96" s="2">
         <v>22</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="N96" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N96" s="1"/>
-      <c r="O96" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O96" s="1"/>
+      <c r="P96" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>60</v>
       </c>
@@ -6569,17 +6861,20 @@
         <v>218</v>
       </c>
       <c r="L97" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M97" s="2">
         <v>22</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="N97" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N97" s="1"/>
-      <c r="O97" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O97" s="1"/>
+      <c r="P97" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>60</v>
       </c>
@@ -6614,17 +6909,20 @@
         <v>218</v>
       </c>
       <c r="L98" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M98" s="2">
         <v>22</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="N98" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O98" s="1"/>
+      <c r="P98" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>60</v>
       </c>
@@ -6659,17 +6957,20 @@
         <v>264</v>
       </c>
       <c r="L99" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M99" s="2">
         <v>22</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="N99" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N99" s="1"/>
-      <c r="O99" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O99" s="1"/>
+      <c r="P99" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>60</v>
       </c>
@@ -6704,17 +7005,20 @@
         <v>264</v>
       </c>
       <c r="L100" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M100" s="2">
         <v>22</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="N100" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N100" s="1"/>
-      <c r="O100" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O100" s="1"/>
+      <c r="P100" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>60</v>
       </c>
@@ -6749,17 +7053,20 @@
         <v>264</v>
       </c>
       <c r="L101" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M101" s="2">
         <v>22</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="N101" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N101" s="1"/>
-      <c r="O101" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O101" s="1"/>
+      <c r="P101" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>60</v>
       </c>
@@ -6794,17 +7101,20 @@
         <v>264</v>
       </c>
       <c r="L102" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M102" s="2">
         <v>22</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="N102" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O102" s="1"/>
+      <c r="P102" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>60</v>
       </c>
@@ -6839,17 +7149,20 @@
         <v>264</v>
       </c>
       <c r="L103" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M103" s="2">
         <v>22</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N103" s="1"/>
-      <c r="O103" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O103" s="1"/>
+      <c r="P103" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>60</v>
       </c>
@@ -6884,17 +7197,20 @@
         <v>264</v>
       </c>
       <c r="L104" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M104" s="2">
         <v>22</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="N104" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N104" s="1"/>
-      <c r="O104" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O104" s="1"/>
+      <c r="P104" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>60</v>
       </c>
@@ -6929,17 +7245,20 @@
         <v>264</v>
       </c>
       <c r="L105" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M105" s="2">
         <v>22</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="N105" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N105" s="1"/>
-      <c r="O105" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O105" s="1"/>
+      <c r="P105" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>60</v>
       </c>
@@ -6974,17 +7293,20 @@
         <v>264</v>
       </c>
       <c r="L106" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M106" s="2">
         <v>22</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="N106" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O106" s="1"/>
+      <c r="P106" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>60</v>
       </c>
@@ -7019,17 +7341,20 @@
         <v>264</v>
       </c>
       <c r="L107" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M107" s="2">
         <v>22</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="N107" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O107" s="1"/>
+      <c r="P107" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>60</v>
       </c>
@@ -7064,17 +7389,20 @@
         <v>264</v>
       </c>
       <c r="L108" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M108" s="2">
         <v>22</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="N108" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O108" s="1"/>
+      <c r="P108" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>60</v>
       </c>
@@ -7109,17 +7437,20 @@
         <v>76</v>
       </c>
       <c r="L109" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M109" s="2">
         <v>22</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="N109" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O109" s="1"/>
+      <c r="P109" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>60</v>
       </c>
@@ -7154,17 +7485,20 @@
         <v>76</v>
       </c>
       <c r="L110" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M110" s="2">
         <v>22</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="N110" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O110" s="1"/>
+      <c r="P110" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>60</v>
       </c>
@@ -7199,17 +7533,20 @@
         <v>76</v>
       </c>
       <c r="L111" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M111" s="2">
         <v>22</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="N111" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N111" s="1"/>
-      <c r="O111" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O111" s="1"/>
+      <c r="P111" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>60</v>
       </c>
@@ -7244,17 +7581,20 @@
         <v>76</v>
       </c>
       <c r="L112" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M112" s="2">
         <v>22</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="N112" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N112" s="1"/>
-      <c r="O112" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O112" s="1"/>
+      <c r="P112" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>60</v>
       </c>
@@ -7289,17 +7629,20 @@
         <v>76</v>
       </c>
       <c r="L113" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M113" s="2">
         <v>22</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="N113" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N113" s="1"/>
-      <c r="O113" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O113" s="1"/>
+      <c r="P113" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>60</v>
       </c>
@@ -7334,17 +7677,20 @@
         <v>76</v>
       </c>
       <c r="L114" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M114" s="2">
         <v>22</v>
       </c>
-      <c r="M114" s="2" t="s">
+      <c r="N114" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N114" s="1"/>
-      <c r="O114" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O114" s="1"/>
+      <c r="P114" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>60</v>
       </c>
@@ -7379,17 +7725,20 @@
         <v>76</v>
       </c>
       <c r="L115" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M115" s="2">
         <v>22</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="N115" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N115" s="1"/>
-      <c r="O115" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O115" s="1"/>
+      <c r="P115" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>60</v>
       </c>
@@ -7424,17 +7773,20 @@
         <v>76</v>
       </c>
       <c r="L116" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M116" s="2">
         <v>22</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="N116" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N116" s="1"/>
-      <c r="O116" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O116" s="1"/>
+      <c r="P116" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>60</v>
       </c>
@@ -7469,17 +7821,20 @@
         <v>76</v>
       </c>
       <c r="L117" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M117" s="2">
         <v>22</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="N117" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N117" s="1"/>
-      <c r="O117" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O117" s="1"/>
+      <c r="P117" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>60</v>
       </c>
@@ -7514,17 +7869,20 @@
         <v>76</v>
       </c>
       <c r="L118" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M118" s="2">
         <v>22</v>
       </c>
-      <c r="M118" s="2" t="s">
+      <c r="N118" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N118" s="1"/>
-      <c r="O118" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O118" s="1"/>
+      <c r="P118" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>60</v>
       </c>
@@ -7559,17 +7917,20 @@
         <v>76</v>
       </c>
       <c r="L119" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M119" s="2">
         <v>22</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="N119" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N119" s="1"/>
-      <c r="O119" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O119" s="1"/>
+      <c r="P119" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>60</v>
       </c>
@@ -7604,17 +7965,20 @@
         <v>76</v>
       </c>
       <c r="L120" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M120" s="2">
         <v>22</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="N120" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N120" s="1"/>
-      <c r="O120" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O120" s="1"/>
+      <c r="P120" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>60</v>
       </c>
@@ -7649,17 +8013,20 @@
         <v>76</v>
       </c>
       <c r="L121" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M121" s="2">
         <v>22</v>
       </c>
-      <c r="M121" s="2" t="s">
+      <c r="N121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N121" s="1"/>
-      <c r="O121" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O121" s="1"/>
+      <c r="P121" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>60</v>
       </c>
@@ -7694,17 +8061,20 @@
         <v>76</v>
       </c>
       <c r="L122" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M122" s="2">
         <v>22</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="N122" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N122" s="1"/>
-      <c r="O122" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O122" s="1"/>
+      <c r="P122" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>60</v>
       </c>
@@ -7739,17 +8109,20 @@
         <v>76</v>
       </c>
       <c r="L123" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M123" s="2">
         <v>22</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="N123" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N123" s="1"/>
-      <c r="O123" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O123" s="1"/>
+      <c r="P123" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>60</v>
       </c>
@@ -7784,17 +8157,20 @@
         <v>76</v>
       </c>
       <c r="L124" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M124" s="2">
         <v>22</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N124" s="1"/>
-      <c r="O124" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O124" s="1"/>
+      <c r="P124" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>60</v>
       </c>
@@ -7829,17 +8205,20 @@
         <v>76</v>
       </c>
       <c r="L125" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M125" s="2">
         <v>22</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="N125" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N125" s="1"/>
-      <c r="O125" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O125" s="1"/>
+      <c r="P125" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>60</v>
       </c>
@@ -7874,17 +8253,20 @@
         <v>76</v>
       </c>
       <c r="L126" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M126" s="2">
         <v>22</v>
       </c>
-      <c r="M126" s="2" t="s">
+      <c r="N126" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N126" s="1"/>
-      <c r="O126" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O126" s="1"/>
+      <c r="P126" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>60</v>
       </c>
@@ -7919,17 +8301,20 @@
         <v>76</v>
       </c>
       <c r="L127" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M127" s="2">
         <v>22</v>
       </c>
-      <c r="M127" s="2" t="s">
+      <c r="N127" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N127" s="1"/>
-      <c r="O127" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O127" s="1"/>
+      <c r="P127" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>60</v>
       </c>
@@ -7964,17 +8349,20 @@
         <v>76</v>
       </c>
       <c r="L128" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M128" s="2">
         <v>22</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="N128" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O128" s="1"/>
+      <c r="P128" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>60</v>
       </c>
@@ -8009,17 +8397,20 @@
         <v>76</v>
       </c>
       <c r="L129" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M129" s="2">
         <v>22</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="N129" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O129" s="1"/>
+      <c r="P129" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>60</v>
       </c>
@@ -8054,17 +8445,20 @@
         <v>76</v>
       </c>
       <c r="L130" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M130" s="2">
         <v>22</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="N130" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N130" s="1"/>
-      <c r="O130" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O130" s="1"/>
+      <c r="P130" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>60</v>
       </c>
@@ -8099,17 +8493,20 @@
         <v>76</v>
       </c>
       <c r="L131" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M131" s="2">
         <v>22</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="N131" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N131" s="1"/>
-      <c r="O131" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O131" s="1"/>
+      <c r="P131" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>60</v>
       </c>
@@ -8144,17 +8541,20 @@
         <v>76</v>
       </c>
       <c r="L132" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M132" s="2">
         <v>22</v>
       </c>
-      <c r="M132" s="2" t="s">
+      <c r="N132" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N132" s="1"/>
-      <c r="O132" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O132" s="1"/>
+      <c r="P132" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>60</v>
       </c>
@@ -8189,17 +8589,20 @@
         <v>218</v>
       </c>
       <c r="L133" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M133" s="2">
         <v>22</v>
       </c>
-      <c r="M133" s="2" t="s">
+      <c r="N133" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N133" s="1"/>
-      <c r="O133" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O133" s="1"/>
+      <c r="P133" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>60</v>
       </c>
@@ -8234,17 +8637,20 @@
         <v>76</v>
       </c>
       <c r="L134" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M134" s="2">
         <v>22</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="N134" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N134" s="1"/>
-      <c r="O134" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O134" s="1"/>
+      <c r="P134" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>60</v>
       </c>
@@ -8279,17 +8685,20 @@
         <v>76</v>
       </c>
       <c r="L135" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M135" s="2">
         <v>22</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="N135" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N135" s="1"/>
-      <c r="O135" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O135" s="1"/>
+      <c r="P135" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>60</v>
       </c>
@@ -8324,17 +8733,20 @@
         <v>76</v>
       </c>
       <c r="L136" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M136" s="2">
         <v>22</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="N136" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N136" s="1"/>
-      <c r="O136" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O136" s="1"/>
+      <c r="P136" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>60</v>
       </c>
@@ -8369,17 +8781,20 @@
         <v>76</v>
       </c>
       <c r="L137" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M137" s="2">
         <v>22</v>
       </c>
-      <c r="M137" s="2" t="s">
+      <c r="N137" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N137" s="1"/>
-      <c r="O137" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O137" s="1"/>
+      <c r="P137" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>60</v>
       </c>
@@ -8414,17 +8829,20 @@
         <v>122</v>
       </c>
       <c r="L138" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M138" s="2">
         <v>22</v>
       </c>
-      <c r="M138" s="2" t="s">
+      <c r="N138" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N138" s="1"/>
-      <c r="O138" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O138" s="1"/>
+      <c r="P138" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>60</v>
       </c>
@@ -8459,17 +8877,20 @@
         <v>122</v>
       </c>
       <c r="L139" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M139" s="2">
         <v>22</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="N139" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N139" s="1"/>
-      <c r="O139" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O139" s="1"/>
+      <c r="P139" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>60</v>
       </c>
@@ -8504,17 +8925,20 @@
         <v>122</v>
       </c>
       <c r="L140" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M140" s="2">
         <v>22</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="N140" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N140" s="1"/>
-      <c r="O140" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O140" s="1"/>
+      <c r="P140" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>60</v>
       </c>
@@ -8549,17 +8973,20 @@
         <v>122</v>
       </c>
       <c r="L141" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M141" s="2">
         <v>22</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="N141" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N141" s="1"/>
-      <c r="O141" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O141" s="1"/>
+      <c r="P141" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>60</v>
       </c>
@@ -8594,17 +9021,20 @@
         <v>122</v>
       </c>
       <c r="L142" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M142" s="2">
         <v>22</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="N142" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N142" s="1"/>
-      <c r="O142" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O142" s="1"/>
+      <c r="P142" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>60</v>
       </c>
@@ -8639,17 +9069,20 @@
         <v>122</v>
       </c>
       <c r="L143" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M143" s="2">
         <v>22</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="N143" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N143" s="1"/>
-      <c r="O143" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O143" s="1"/>
+      <c r="P143" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>60</v>
       </c>
@@ -8684,17 +9117,20 @@
         <v>122</v>
       </c>
       <c r="L144" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M144" s="2">
         <v>22</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="N144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N144" s="1"/>
-      <c r="O144" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O144" s="1"/>
+      <c r="P144" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>60</v>
       </c>
@@ -8729,17 +9165,20 @@
         <v>122</v>
       </c>
       <c r="L145" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M145" s="2">
         <v>22</v>
       </c>
-      <c r="M145" s="2" t="s">
+      <c r="N145" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N145" s="1"/>
-      <c r="O145" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O145" s="1"/>
+      <c r="P145" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>60</v>
       </c>
@@ -8774,17 +9213,20 @@
         <v>122</v>
       </c>
       <c r="L146" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M146" s="2">
         <v>22</v>
       </c>
-      <c r="M146" s="2" t="s">
+      <c r="N146" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N146" s="1"/>
-      <c r="O146" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O146" s="1"/>
+      <c r="P146" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>60</v>
       </c>
@@ -8819,17 +9261,20 @@
         <v>122</v>
       </c>
       <c r="L147" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M147" s="2">
         <v>22</v>
       </c>
-      <c r="M147" s="2" t="s">
+      <c r="N147" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N147" s="1"/>
-      <c r="O147" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O147" s="1"/>
+      <c r="P147" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>60</v>
       </c>
@@ -8864,17 +9309,20 @@
         <v>218</v>
       </c>
       <c r="L148" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M148" s="2">
         <v>22</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="N148" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N148" s="1"/>
-      <c r="O148" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O148" s="1"/>
+      <c r="P148" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>60</v>
       </c>
@@ -8909,17 +9357,20 @@
         <v>218</v>
       </c>
       <c r="L149" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M149" s="2">
         <v>22</v>
       </c>
-      <c r="M149" s="2" t="s">
+      <c r="N149" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N149" s="1"/>
-      <c r="O149" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O149" s="1"/>
+      <c r="P149" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
@@ -8954,17 +9405,20 @@
         <v>198</v>
       </c>
       <c r="L150" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M150" s="2">
         <v>22</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="N150" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N150" s="1"/>
-      <c r="O150" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O150" s="1"/>
+      <c r="P150" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>60</v>
       </c>
@@ -8999,17 +9453,20 @@
         <v>198</v>
       </c>
       <c r="L151" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M151" s="2">
         <v>22</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N151" s="1"/>
-      <c r="O151" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O151" s="1"/>
+      <c r="P151" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>60</v>
       </c>
@@ -9044,17 +9501,20 @@
         <v>198</v>
       </c>
       <c r="L152" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M152" s="2">
         <v>22</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N152" s="1"/>
-      <c r="O152" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O152" s="1"/>
+      <c r="P152" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>60</v>
       </c>
@@ -9089,17 +9549,20 @@
         <v>218</v>
       </c>
       <c r="L153" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M153" s="2">
         <v>22</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="N153" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N153" s="1"/>
-      <c r="O153" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O153" s="1"/>
+      <c r="P153" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>60</v>
       </c>
@@ -9134,17 +9597,20 @@
         <v>218</v>
       </c>
       <c r="L154" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M154" s="2">
         <v>22</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="N154" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N154" s="1"/>
-      <c r="O154" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O154" s="1"/>
+      <c r="P154" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>60</v>
       </c>
@@ -9179,17 +9645,20 @@
         <v>218</v>
       </c>
       <c r="L155" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M155" s="2">
         <v>22</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="N155" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N155" s="1"/>
-      <c r="O155" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O155" s="1"/>
+      <c r="P155" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>60</v>
       </c>
@@ -9224,17 +9693,20 @@
         <v>218</v>
       </c>
       <c r="L156" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M156" s="2">
         <v>22</v>
       </c>
-      <c r="M156" s="2" t="s">
+      <c r="N156" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N156" s="1"/>
-      <c r="O156" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O156" s="1"/>
+      <c r="P156" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>60</v>
       </c>
@@ -9269,17 +9741,20 @@
         <v>218</v>
       </c>
       <c r="L157" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M157" s="2">
         <v>22</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="N157" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N157" s="1"/>
-      <c r="O157" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O157" s="1"/>
+      <c r="P157" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>60</v>
       </c>
@@ -9314,17 +9789,20 @@
         <v>218</v>
       </c>
       <c r="L158" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M158" s="2">
         <v>22</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="N158" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N158" s="1"/>
-      <c r="O158" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O158" s="1"/>
+      <c r="P158" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>60</v>
       </c>
@@ -9359,17 +9837,20 @@
         <v>218</v>
       </c>
       <c r="L159" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M159" s="2">
         <v>22</v>
       </c>
-      <c r="M159" s="2" t="s">
+      <c r="N159" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N159" s="1"/>
-      <c r="O159" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O159" s="1"/>
+      <c r="P159" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>60</v>
       </c>
@@ -9404,17 +9885,20 @@
         <v>233</v>
       </c>
       <c r="L160" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M160" s="2">
         <v>22</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="N160" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N160" s="1"/>
-      <c r="O160" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O160" s="1"/>
+      <c r="P160" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>60</v>
       </c>
@@ -9449,17 +9933,20 @@
         <v>233</v>
       </c>
       <c r="L161" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M161" s="2">
         <v>22</v>
       </c>
-      <c r="M161" s="2" t="s">
+      <c r="N161" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N161" s="1"/>
-      <c r="O161" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O161" s="1"/>
+      <c r="P161" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>60</v>
       </c>
@@ -9494,17 +9981,20 @@
         <v>233</v>
       </c>
       <c r="L162" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M162" s="2">
         <v>22</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="N162" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N162" s="1"/>
-      <c r="O162" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O162" s="1"/>
+      <c r="P162" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>60</v>
       </c>
@@ -9539,17 +10029,20 @@
         <v>233</v>
       </c>
       <c r="L163" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M163" s="2">
         <v>22</v>
       </c>
-      <c r="M163" s="2" t="s">
+      <c r="N163" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N163" s="1"/>
-      <c r="O163" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O163" s="1"/>
+      <c r="P163" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>60</v>
       </c>
@@ -9584,17 +10077,20 @@
         <v>233</v>
       </c>
       <c r="L164" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M164" s="2">
         <v>22</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="N164" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N164" s="1"/>
-      <c r="O164" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O164" s="1"/>
+      <c r="P164" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>60</v>
       </c>
@@ -9629,17 +10125,20 @@
         <v>233</v>
       </c>
       <c r="L165" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M165" s="2">
         <v>22</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="N165" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N165" s="1"/>
-      <c r="O165" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O165" s="1"/>
+      <c r="P165" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>60</v>
       </c>
@@ -9674,17 +10173,20 @@
         <v>233</v>
       </c>
       <c r="L166" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M166" s="2">
         <v>22</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="N166" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N166" s="1"/>
-      <c r="O166" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O166" s="1"/>
+      <c r="P166" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>60</v>
       </c>
@@ -9719,17 +10221,20 @@
         <v>233</v>
       </c>
       <c r="L167" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M167" s="2">
         <v>22</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="N167" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N167" s="1"/>
-      <c r="O167" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O167" s="1"/>
+      <c r="P167" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>60</v>
       </c>
@@ -9764,17 +10269,20 @@
         <v>233</v>
       </c>
       <c r="L168" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M168" s="2">
         <v>22</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="N168" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N168" s="1"/>
-      <c r="O168" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O168" s="1"/>
+      <c r="P168" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>60</v>
       </c>
@@ -9809,17 +10317,20 @@
         <v>233</v>
       </c>
       <c r="L169" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M169" s="2">
         <v>22</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="N169" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N169" s="1"/>
-      <c r="O169" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O169" s="1"/>
+      <c r="P169" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>60</v>
       </c>
@@ -9854,17 +10365,20 @@
         <v>233</v>
       </c>
       <c r="L170" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M170" s="2">
         <v>22</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="N170" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="N170" s="1"/>
-      <c r="O170" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+      <c r="O170" s="1"/>
+      <c r="P170" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="360" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>60</v>
       </c>
@@ -9898,20 +10412,23 @@
       <c r="K171" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L171" s="1">
+      <c r="L171" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M171" s="1">
         <v>23</v>
       </c>
-      <c r="M171" s="1" t="s">
+      <c r="N171" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N171" s="1" t="s">
+      <c r="O171" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="O171" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="375" x14ac:dyDescent="0.25">
+      <c r="P171" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="375" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>60</v>
       </c>
@@ -9945,20 +10462,23 @@
       <c r="K172" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L172" s="1">
+      <c r="L172" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M172" s="1">
         <v>23</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N172" s="1" t="s">
+      <c r="O172" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="O172" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="P172" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>60</v>
       </c>
@@ -9992,20 +10512,23 @@
       <c r="K173" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L173" s="1">
+      <c r="L173" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M173" s="1">
         <v>23</v>
       </c>
-      <c r="M173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N173" s="1" t="s">
+      <c r="O173" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="O173" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P173" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>60</v>
       </c>
@@ -10039,20 +10562,23 @@
       <c r="K174" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L174" s="1">
+      <c r="L174" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M174" s="1">
         <v>23</v>
       </c>
-      <c r="M174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N174" s="1" t="s">
+      <c r="O174" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="O174" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="P174" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>60</v>
       </c>
@@ -10086,20 +10612,23 @@
       <c r="K175" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L175" s="1">
+      <c r="L175" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M175" s="1">
         <v>23</v>
       </c>
-      <c r="M175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N175" s="1" t="s">
+      <c r="O175" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="O175" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+      <c r="P175" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>60</v>
       </c>
@@ -10133,20 +10662,23 @@
       <c r="K176" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L176" s="1">
+      <c r="L176" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M176" s="1">
         <v>23</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N176" s="1" t="s">
+      <c r="O176" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="O176" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="P176" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>60</v>
       </c>
@@ -10180,20 +10712,23 @@
       <c r="K177" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L177" s="1">
+      <c r="L177" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M177" s="1">
         <v>23</v>
       </c>
-      <c r="M177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N177" s="1" t="s">
+      <c r="O177" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="O177" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+      <c r="P177" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>60</v>
       </c>
@@ -10227,20 +10762,23 @@
       <c r="K178" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L178" s="1">
+      <c r="L178" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M178" s="1">
         <v>23</v>
       </c>
-      <c r="M178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N178" s="1" t="s">
+      <c r="O178" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="O178" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P178" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>60</v>
       </c>
@@ -10274,20 +10812,23 @@
       <c r="K179" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L179" s="1">
+      <c r="L179" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M179" s="1">
         <v>23</v>
       </c>
-      <c r="M179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N179" s="1" t="s">
+      <c r="O179" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O179" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="P179" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>60</v>
       </c>
@@ -10321,20 +10862,23 @@
       <c r="K180" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L180" s="1">
+      <c r="L180" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M180" s="1">
         <v>23</v>
       </c>
-      <c r="M180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N180" s="1" t="s">
+      <c r="O180" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="O180" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="P180" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>60</v>
       </c>
@@ -10368,20 +10912,23 @@
       <c r="K181" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L181" s="1">
+      <c r="L181" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M181" s="1">
         <v>23</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N181" s="1" t="s">
+      <c r="O181" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="O181" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P181" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>60</v>
       </c>
@@ -10415,20 +10962,23 @@
       <c r="K182" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L182" s="1">
+      <c r="L182" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M182" s="1">
         <v>23</v>
       </c>
-      <c r="M182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N182" s="1" t="s">
+      <c r="O182" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="O182" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+      <c r="P182" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>60</v>
       </c>
@@ -10462,20 +11012,23 @@
       <c r="K183" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L183" s="1">
+      <c r="L183" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M183" s="1">
         <v>23</v>
       </c>
-      <c r="M183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N183" s="1" t="s">
+      <c r="O183" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="O183" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" ht="225" x14ac:dyDescent="0.25">
+      <c r="P183" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>60</v>
       </c>
@@ -10509,20 +11062,23 @@
       <c r="K184" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L184" s="1">
+      <c r="L184" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M184" s="1">
         <v>23</v>
       </c>
-      <c r="M184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N184" s="1" t="s">
+      <c r="O184" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="O184" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="P184" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>60</v>
       </c>
@@ -10556,20 +11112,23 @@
       <c r="K185" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L185" s="1">
+      <c r="L185" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M185" s="1">
         <v>23</v>
       </c>
-      <c r="M185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N185" s="1" t="s">
+      <c r="O185" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="O185" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" ht="300" x14ac:dyDescent="0.25">
+      <c r="P185" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="300" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>60</v>
       </c>
@@ -10603,20 +11162,23 @@
       <c r="K186" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L186" s="1">
+      <c r="L186" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M186" s="1">
         <v>23</v>
       </c>
-      <c r="M186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N186" s="1" t="s">
+      <c r="O186" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="O186" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P186" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>60</v>
       </c>
@@ -10650,20 +11212,23 @@
       <c r="K187" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="L187" s="1">
+      <c r="L187" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M187" s="1">
         <v>23</v>
       </c>
-      <c r="M187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N187" s="1" t="s">
+      <c r="O187" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="O187" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="P187" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>60</v>
       </c>
@@ -10697,20 +11262,23 @@
       <c r="K188" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L188" s="1">
+      <c r="L188" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M188" s="1">
         <v>23</v>
       </c>
-      <c r="M188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N188" s="1" t="s">
+      <c r="O188" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="O188" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="P188" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>60</v>
       </c>
@@ -10744,20 +11312,23 @@
       <c r="K189" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="L189" s="1">
+      <c r="L189" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M189" s="1">
         <v>23</v>
       </c>
-      <c r="M189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N189" s="1" t="s">
+      <c r="O189" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="O189" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="P189" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="330" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>60</v>
       </c>
@@ -10791,20 +11362,23 @@
       <c r="K190" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L190" s="1">
+      <c r="L190" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M190" s="1">
         <v>23</v>
       </c>
-      <c r="M190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N190" s="1" t="s">
+      <c r="O190" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="O190" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P190" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>60</v>
       </c>
@@ -10838,20 +11412,23 @@
       <c r="K191" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="L191" s="1">
+      <c r="L191" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M191" s="1">
         <v>23</v>
       </c>
-      <c r="M191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N191" s="1" t="s">
+      <c r="O191" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="O191" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="P191" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>60</v>
       </c>
@@ -10885,20 +11462,23 @@
       <c r="K192" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L192" s="1">
+      <c r="L192" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M192" s="1">
         <v>23</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N192" s="1" t="s">
+      <c r="O192" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="O192" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" ht="330" x14ac:dyDescent="0.25">
+      <c r="P192" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="330" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>60</v>
       </c>
@@ -10932,27 +11512,30 @@
       <c r="K193" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L193" s="1">
+      <c r="L193" s="2">
+        <v>2017</v>
+      </c>
+      <c r="M193" s="1">
         <v>23</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="N193" s="1" t="s">
+      <c r="O193" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O193" s="2">
+      <c r="P193" s="2">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O193" xr:uid="{2DC3D63A-E36A-4837-B363-E9FAB7F1B851}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O193">
-      <sortCondition ref="N2"/>
+  <autoFilter ref="A1:P193" xr:uid="{2DC3D63A-E36A-4837-B363-E9FAB7F1B851}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P193">
+      <sortCondition ref="O2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:N193">
-    <sortCondition ref="M2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:O193">
+    <sortCondition ref="N2"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/Qual_7_data.xlsx
+++ b/source_data/Qual_7_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD8835A-3AC6-43C9-8DA0-490C2FD0F6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DBE244-D601-4FCE-8502-016D15841AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="7 - Existence of law on gender " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7 - Existence of law on gender '!$A$1:$P$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7 - Existence of law on gender '!$A$1:$T$193</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="443">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1338,6 +1338,30 @@
   </si>
   <si>
     <t>TIME_PERIOD</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>NATURE_DESC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Country Data</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTING_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -2190,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P193"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H193" workbookViewId="0">
-      <selection activeCell="L193" sqref="L193"/>
+    <sheetView tabSelected="1" topLeftCell="M191" workbookViewId="0">
+      <selection activeCell="N192" sqref="N192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,12 +2235,16 @@
     <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="15" max="15" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>426</v>
       </c>
@@ -2260,13 +2288,25 @@
         <v>401</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>60</v>
       </c>
@@ -2309,12 +2349,24 @@
       <c r="N2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>60</v>
       </c>
@@ -2357,12 +2409,24 @@
       <c r="N3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>60</v>
       </c>
@@ -2405,12 +2469,24 @@
       <c r="N4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>60</v>
       </c>
@@ -2453,12 +2529,24 @@
       <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>60</v>
       </c>
@@ -2501,12 +2589,24 @@
       <c r="N6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>60</v>
       </c>
@@ -2549,12 +2649,24 @@
       <c r="N7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
@@ -2597,12 +2709,24 @@
       <c r="N8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>60</v>
       </c>
@@ -2645,12 +2769,24 @@
       <c r="N9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>60</v>
       </c>
@@ -2693,12 +2829,24 @@
       <c r="N10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60</v>
       </c>
@@ -2741,12 +2889,24 @@
       <c r="N11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>60</v>
       </c>
@@ -2789,12 +2949,24 @@
       <c r="N12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>60</v>
       </c>
@@ -2837,12 +3009,24 @@
       <c r="N13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>60</v>
       </c>
@@ -2885,12 +3069,24 @@
       <c r="N14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>60</v>
       </c>
@@ -2933,12 +3129,24 @@
       <c r="N15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O15" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>60</v>
       </c>
@@ -2981,12 +3189,24 @@
       <c r="N16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>60</v>
       </c>
@@ -3029,12 +3249,24 @@
       <c r="N17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O17" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>60</v>
       </c>
@@ -3077,12 +3309,24 @@
       <c r="N18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>60</v>
       </c>
@@ -3125,12 +3369,24 @@
       <c r="N19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>60</v>
       </c>
@@ -3173,12 +3429,24 @@
       <c r="N20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O20" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>60</v>
       </c>
@@ -3221,12 +3489,24 @@
       <c r="N21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>60</v>
       </c>
@@ -3269,12 +3549,24 @@
       <c r="N22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>60</v>
       </c>
@@ -3317,12 +3609,24 @@
       <c r="N23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>60</v>
       </c>
@@ -3365,12 +3669,24 @@
       <c r="N24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O24" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>60</v>
       </c>
@@ -3413,12 +3729,24 @@
       <c r="N25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>60</v>
       </c>
@@ -3461,12 +3789,24 @@
       <c r="N26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O26" s="1"/>
-      <c r="P26" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>60</v>
       </c>
@@ -3509,12 +3849,24 @@
       <c r="N27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>60</v>
       </c>
@@ -3557,12 +3909,24 @@
       <c r="N28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>60</v>
       </c>
@@ -3605,12 +3969,24 @@
       <c r="N29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O29" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>60</v>
       </c>
@@ -3653,12 +4029,24 @@
       <c r="N30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O30" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>60</v>
       </c>
@@ -3701,12 +4089,24 @@
       <c r="N31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O31" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>60</v>
       </c>
@@ -3749,12 +4149,24 @@
       <c r="N32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O32" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>60</v>
       </c>
@@ -3797,12 +4209,24 @@
       <c r="N33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>60</v>
       </c>
@@ -3845,12 +4269,24 @@
       <c r="N34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>60</v>
       </c>
@@ -3893,12 +4329,24 @@
       <c r="N35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O35" s="1"/>
-      <c r="P35" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O35" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>60</v>
       </c>
@@ -3941,12 +4389,24 @@
       <c r="N36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>60</v>
       </c>
@@ -3989,12 +4449,24 @@
       <c r="N37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>60</v>
       </c>
@@ -4037,12 +4509,24 @@
       <c r="N38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>60</v>
       </c>
@@ -4085,12 +4569,24 @@
       <c r="N39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O39" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>60</v>
       </c>
@@ -4133,12 +4629,24 @@
       <c r="N40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>60</v>
       </c>
@@ -4181,12 +4689,24 @@
       <c r="N41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>60</v>
       </c>
@@ -4229,12 +4749,24 @@
       <c r="N42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O42" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>60</v>
       </c>
@@ -4277,12 +4809,24 @@
       <c r="N43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>60</v>
       </c>
@@ -4325,12 +4869,24 @@
       <c r="N44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O44" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>60</v>
       </c>
@@ -4373,12 +4929,24 @@
       <c r="N45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>60</v>
       </c>
@@ -4421,12 +4989,24 @@
       <c r="N46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>60</v>
       </c>
@@ -4469,12 +5049,24 @@
       <c r="N47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>60</v>
       </c>
@@ -4517,12 +5109,24 @@
       <c r="N48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>60</v>
       </c>
@@ -4565,12 +5169,24 @@
       <c r="N49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>60</v>
       </c>
@@ -4613,12 +5229,24 @@
       <c r="N50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>60</v>
       </c>
@@ -4661,12 +5289,24 @@
       <c r="N51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>60</v>
       </c>
@@ -4709,12 +5349,24 @@
       <c r="N52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O52" s="1"/>
-      <c r="P52" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>60</v>
       </c>
@@ -4757,12 +5409,24 @@
       <c r="N53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>60</v>
       </c>
@@ -4805,12 +5469,24 @@
       <c r="N54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>60</v>
       </c>
@@ -4853,12 +5529,24 @@
       <c r="N55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O55" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>60</v>
       </c>
@@ -4901,12 +5589,24 @@
       <c r="N56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O56" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>60</v>
       </c>
@@ -4949,12 +5649,24 @@
       <c r="N57" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>60</v>
       </c>
@@ -4997,12 +5709,24 @@
       <c r="N58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O58" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -5045,12 +5769,24 @@
       <c r="N59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O59" s="1"/>
-      <c r="P59" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S59" s="1"/>
+      <c r="T59" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>60</v>
       </c>
@@ -5093,12 +5829,24 @@
       <c r="N60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S60" s="1"/>
+      <c r="T60" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5141,12 +5889,24 @@
       <c r="N61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O61" s="1"/>
-      <c r="P61" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O61" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="T61" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -5189,12 +5949,24 @@
       <c r="N62" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O62" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -5237,12 +6009,24 @@
       <c r="N63" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O63" s="1"/>
-      <c r="P63" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O63" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -5285,12 +6069,24 @@
       <c r="N64" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O64" s="1"/>
-      <c r="P64" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S64" s="1"/>
+      <c r="T64" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -5333,12 +6129,24 @@
       <c r="N65" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O65" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S65" s="1"/>
+      <c r="T65" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -5381,12 +6189,24 @@
       <c r="N66" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S66" s="1"/>
+      <c r="T66" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>60</v>
       </c>
@@ -5429,12 +6249,24 @@
       <c r="N67" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O67" s="1"/>
-      <c r="P67" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S67" s="1"/>
+      <c r="T67" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>60</v>
       </c>
@@ -5477,12 +6309,24 @@
       <c r="N68" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O68" s="1"/>
-      <c r="P68" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O68" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S68" s="1"/>
+      <c r="T68" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>60</v>
       </c>
@@ -5525,12 +6369,24 @@
       <c r="N69" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S69" s="1"/>
+      <c r="T69" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>60</v>
       </c>
@@ -5573,12 +6429,24 @@
       <c r="N70" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O70" s="1"/>
-      <c r="P70" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S70" s="1"/>
+      <c r="T70" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>60</v>
       </c>
@@ -5621,12 +6489,24 @@
       <c r="N71" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O71" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>60</v>
       </c>
@@ -5669,12 +6549,24 @@
       <c r="N72" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O72" s="1"/>
-      <c r="P72" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O72" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S72" s="1"/>
+      <c r="T72" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>60</v>
       </c>
@@ -5717,12 +6609,24 @@
       <c r="N73" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O73" s="1"/>
-      <c r="P73" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O73" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S73" s="1"/>
+      <c r="T73" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>60</v>
       </c>
@@ -5765,12 +6669,24 @@
       <c r="N74" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O74" s="1"/>
-      <c r="P74" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O74" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S74" s="1"/>
+      <c r="T74" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>60</v>
       </c>
@@ -5813,12 +6729,24 @@
       <c r="N75" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S75" s="1"/>
+      <c r="T75" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>60</v>
       </c>
@@ -5861,12 +6789,24 @@
       <c r="N76" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O76" s="1"/>
-      <c r="P76" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O76" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S76" s="1"/>
+      <c r="T76" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>60</v>
       </c>
@@ -5909,12 +6849,24 @@
       <c r="N77" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O77" s="1"/>
-      <c r="P77" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O77" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S77" s="1"/>
+      <c r="T77" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>60</v>
       </c>
@@ -5957,12 +6909,24 @@
       <c r="N78" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O78" s="1"/>
-      <c r="P78" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S78" s="1"/>
+      <c r="T78" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>60</v>
       </c>
@@ -6005,12 +6969,24 @@
       <c r="N79" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O79" s="1"/>
-      <c r="P79" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O79" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S79" s="1"/>
+      <c r="T79" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>60</v>
       </c>
@@ -6053,12 +7029,24 @@
       <c r="N80" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O80" s="1"/>
-      <c r="P80" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O80" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S80" s="1"/>
+      <c r="T80" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>60</v>
       </c>
@@ -6101,12 +7089,24 @@
       <c r="N81" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O81" s="1"/>
-      <c r="P81" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O81" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S81" s="1"/>
+      <c r="T81" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>60</v>
       </c>
@@ -6149,12 +7149,24 @@
       <c r="N82" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O82" s="1"/>
-      <c r="P82" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O82" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S82" s="1"/>
+      <c r="T82" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>60</v>
       </c>
@@ -6197,12 +7209,24 @@
       <c r="N83" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O83" s="1"/>
-      <c r="P83" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O83" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S83" s="1"/>
+      <c r="T83" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>60</v>
       </c>
@@ -6245,12 +7269,24 @@
       <c r="N84" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O84" s="1"/>
-      <c r="P84" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O84" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S84" s="1"/>
+      <c r="T84" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>60</v>
       </c>
@@ -6293,12 +7329,24 @@
       <c r="N85" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="P85" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O85" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S85" s="1"/>
+      <c r="T85" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>60</v>
       </c>
@@ -6341,12 +7389,24 @@
       <c r="N86" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="P86" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O86" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S86" s="1"/>
+      <c r="T86" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>60</v>
       </c>
@@ -6389,12 +7449,24 @@
       <c r="N87" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="P87" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O87" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S87" s="1"/>
+      <c r="T87" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>60</v>
       </c>
@@ -6437,12 +7509,24 @@
       <c r="N88" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="P88" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O88" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S88" s="1"/>
+      <c r="T88" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>60</v>
       </c>
@@ -6485,12 +7569,24 @@
       <c r="N89" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="P89" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O89" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S89" s="1"/>
+      <c r="T89" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>60</v>
       </c>
@@ -6533,12 +7629,24 @@
       <c r="N90" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O90" s="1"/>
-      <c r="P90" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O90" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S90" s="1"/>
+      <c r="T90" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>60</v>
       </c>
@@ -6581,12 +7689,24 @@
       <c r="N91" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O91" s="1"/>
-      <c r="P91" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O91" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S91" s="1"/>
+      <c r="T91" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>60</v>
       </c>
@@ -6629,12 +7749,24 @@
       <c r="N92" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O92" s="1"/>
-      <c r="P92" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O92" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S92" s="1"/>
+      <c r="T92" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>60</v>
       </c>
@@ -6677,12 +7809,24 @@
       <c r="N93" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O93" s="1"/>
-      <c r="P93" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S93" s="1"/>
+      <c r="T93" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>60</v>
       </c>
@@ -6725,12 +7869,24 @@
       <c r="N94" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O94" s="1"/>
-      <c r="P94" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S94" s="1"/>
+      <c r="T94" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>60</v>
       </c>
@@ -6773,12 +7929,24 @@
       <c r="N95" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S95" s="1"/>
+      <c r="T95" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>60</v>
       </c>
@@ -6821,12 +7989,24 @@
       <c r="N96" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O96" s="1"/>
-      <c r="P96" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S96" s="1"/>
+      <c r="T96" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>60</v>
       </c>
@@ -6869,12 +8049,24 @@
       <c r="N97" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O97" s="1"/>
-      <c r="P97" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O97" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S97" s="1"/>
+      <c r="T97" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>60</v>
       </c>
@@ -6917,12 +8109,24 @@
       <c r="N98" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O98" s="1"/>
-      <c r="P98" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S98" s="1"/>
+      <c r="T98" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>60</v>
       </c>
@@ -6965,12 +8169,24 @@
       <c r="N99" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O99" s="1"/>
-      <c r="P99" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O99" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S99" s="1"/>
+      <c r="T99" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>60</v>
       </c>
@@ -7013,12 +8229,24 @@
       <c r="N100" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O100" s="1"/>
-      <c r="P100" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O100" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S100" s="1"/>
+      <c r="T100" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>60</v>
       </c>
@@ -7061,12 +8289,24 @@
       <c r="N101" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O101" s="1"/>
-      <c r="P101" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S101" s="1"/>
+      <c r="T101" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>60</v>
       </c>
@@ -7109,12 +8349,24 @@
       <c r="N102" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O102" s="1"/>
-      <c r="P102" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O102" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S102" s="1"/>
+      <c r="T102" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>60</v>
       </c>
@@ -7157,12 +8409,24 @@
       <c r="N103" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O103" s="1"/>
-      <c r="P103" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O103" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S103" s="1"/>
+      <c r="T103" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>60</v>
       </c>
@@ -7205,12 +8469,24 @@
       <c r="N104" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O104" s="1"/>
-      <c r="P104" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O104" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S104" s="1"/>
+      <c r="T104" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>60</v>
       </c>
@@ -7253,12 +8529,24 @@
       <c r="N105" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O105" s="1"/>
-      <c r="P105" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O105" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S105" s="1"/>
+      <c r="T105" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>60</v>
       </c>
@@ -7301,12 +8589,24 @@
       <c r="N106" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O106" s="1"/>
-      <c r="P106" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O106" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S106" s="1"/>
+      <c r="T106" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>60</v>
       </c>
@@ -7349,12 +8649,24 @@
       <c r="N107" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O107" s="1"/>
-      <c r="P107" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O107" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S107" s="1"/>
+      <c r="T107" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>60</v>
       </c>
@@ -7397,12 +8709,24 @@
       <c r="N108" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O108" s="1"/>
-      <c r="P108" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O108" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S108" s="1"/>
+      <c r="T108" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>60</v>
       </c>
@@ -7445,12 +8769,24 @@
       <c r="N109" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O109" s="1"/>
-      <c r="P109" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O109" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S109" s="1"/>
+      <c r="T109" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>60</v>
       </c>
@@ -7493,12 +8829,24 @@
       <c r="N110" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O110" s="1"/>
-      <c r="P110" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O110" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S110" s="1"/>
+      <c r="T110" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>60</v>
       </c>
@@ -7541,12 +8889,24 @@
       <c r="N111" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O111" s="1"/>
-      <c r="P111" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O111" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S111" s="1"/>
+      <c r="T111" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>60</v>
       </c>
@@ -7589,12 +8949,24 @@
       <c r="N112" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O112" s="1"/>
-      <c r="P112" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S112" s="1"/>
+      <c r="T112" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>60</v>
       </c>
@@ -7637,12 +9009,24 @@
       <c r="N113" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O113" s="1"/>
-      <c r="P113" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O113" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S113" s="1"/>
+      <c r="T113" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>60</v>
       </c>
@@ -7685,12 +9069,24 @@
       <c r="N114" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O114" s="1"/>
-      <c r="P114" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O114" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S114" s="1"/>
+      <c r="T114" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>60</v>
       </c>
@@ -7733,12 +9129,24 @@
       <c r="N115" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O115" s="1"/>
-      <c r="P115" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O115" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S115" s="1"/>
+      <c r="T115" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>60</v>
       </c>
@@ -7781,12 +9189,24 @@
       <c r="N116" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O116" s="1"/>
-      <c r="P116" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O116" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S116" s="1"/>
+      <c r="T116" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>60</v>
       </c>
@@ -7829,12 +9249,24 @@
       <c r="N117" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O117" s="1"/>
-      <c r="P117" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O117" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S117" s="1"/>
+      <c r="T117" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>60</v>
       </c>
@@ -7877,12 +9309,24 @@
       <c r="N118" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O118" s="1"/>
-      <c r="P118" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O118" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S118" s="1"/>
+      <c r="T118" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>60</v>
       </c>
@@ -7925,12 +9369,24 @@
       <c r="N119" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O119" s="1"/>
-      <c r="P119" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O119" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S119" s="1"/>
+      <c r="T119" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>60</v>
       </c>
@@ -7973,12 +9429,24 @@
       <c r="N120" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O120" s="1"/>
-      <c r="P120" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S120" s="1"/>
+      <c r="T120" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>60</v>
       </c>
@@ -8021,12 +9489,24 @@
       <c r="N121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O121" s="1"/>
-      <c r="P121" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O121" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S121" s="1"/>
+      <c r="T121" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>60</v>
       </c>
@@ -8069,12 +9549,24 @@
       <c r="N122" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O122" s="1"/>
-      <c r="P122" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O122" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S122" s="1"/>
+      <c r="T122" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>60</v>
       </c>
@@ -8117,12 +9609,24 @@
       <c r="N123" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O123" s="1"/>
-      <c r="P123" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O123" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S123" s="1"/>
+      <c r="T123" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>60</v>
       </c>
@@ -8165,12 +9669,24 @@
       <c r="N124" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O124" s="1"/>
-      <c r="P124" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O124" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S124" s="1"/>
+      <c r="T124" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>60</v>
       </c>
@@ -8213,12 +9729,24 @@
       <c r="N125" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O125" s="1"/>
-      <c r="P125" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O125" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S125" s="1"/>
+      <c r="T125" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>60</v>
       </c>
@@ -8261,12 +9789,24 @@
       <c r="N126" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O126" s="1"/>
-      <c r="P126" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O126" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S126" s="1"/>
+      <c r="T126" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>60</v>
       </c>
@@ -8309,12 +9849,24 @@
       <c r="N127" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O127" s="1"/>
-      <c r="P127" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S127" s="1"/>
+      <c r="T127" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>60</v>
       </c>
@@ -8357,12 +9909,24 @@
       <c r="N128" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O128" s="1"/>
-      <c r="P128" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S128" s="1"/>
+      <c r="T128" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>60</v>
       </c>
@@ -8405,12 +9969,24 @@
       <c r="N129" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O129" s="1"/>
-      <c r="P129" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O129" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S129" s="1"/>
+      <c r="T129" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>60</v>
       </c>
@@ -8453,12 +10029,24 @@
       <c r="N130" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O130" s="1"/>
-      <c r="P130" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S130" s="1"/>
+      <c r="T130" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>60</v>
       </c>
@@ -8501,12 +10089,24 @@
       <c r="N131" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O131" s="1"/>
-      <c r="P131" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O131" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S131" s="1"/>
+      <c r="T131" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>60</v>
       </c>
@@ -8549,12 +10149,24 @@
       <c r="N132" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O132" s="1"/>
-      <c r="P132" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O132" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S132" s="1"/>
+      <c r="T132" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>60</v>
       </c>
@@ -8597,12 +10209,24 @@
       <c r="N133" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O133" s="1"/>
-      <c r="P133" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O133" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S133" s="1"/>
+      <c r="T133" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>60</v>
       </c>
@@ -8645,12 +10269,24 @@
       <c r="N134" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O134" s="1"/>
-      <c r="P134" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O134" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S134" s="1"/>
+      <c r="T134" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>60</v>
       </c>
@@ -8693,12 +10329,24 @@
       <c r="N135" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O135" s="1"/>
-      <c r="P135" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O135" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S135" s="1"/>
+      <c r="T135" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>60</v>
       </c>
@@ -8741,12 +10389,24 @@
       <c r="N136" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O136" s="1"/>
-      <c r="P136" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S136" s="1"/>
+      <c r="T136" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>60</v>
       </c>
@@ -8789,12 +10449,24 @@
       <c r="N137" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O137" s="1"/>
-      <c r="P137" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O137" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S137" s="1"/>
+      <c r="T137" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>60</v>
       </c>
@@ -8837,12 +10509,24 @@
       <c r="N138" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O138" s="1"/>
-      <c r="P138" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O138" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S138" s="1"/>
+      <c r="T138" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>60</v>
       </c>
@@ -8885,12 +10569,24 @@
       <c r="N139" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O139" s="1"/>
-      <c r="P139" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O139" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S139" s="1"/>
+      <c r="T139" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>60</v>
       </c>
@@ -8933,12 +10629,24 @@
       <c r="N140" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O140" s="1"/>
-      <c r="P140" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O140" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S140" s="1"/>
+      <c r="T140" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>60</v>
       </c>
@@ -8981,12 +10689,24 @@
       <c r="N141" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O141" s="1"/>
-      <c r="P141" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S141" s="1"/>
+      <c r="T141" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>60</v>
       </c>
@@ -9029,12 +10749,24 @@
       <c r="N142" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O142" s="1"/>
-      <c r="P142" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S142" s="1"/>
+      <c r="T142" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>60</v>
       </c>
@@ -9077,12 +10809,24 @@
       <c r="N143" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O143" s="1"/>
-      <c r="P143" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O143" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S143" s="1"/>
+      <c r="T143" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>60</v>
       </c>
@@ -9125,12 +10869,24 @@
       <c r="N144" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O144" s="1"/>
-      <c r="P144" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O144" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S144" s="1"/>
+      <c r="T144" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>60</v>
       </c>
@@ -9173,12 +10929,24 @@
       <c r="N145" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O145" s="1"/>
-      <c r="P145" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O145" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S145" s="1"/>
+      <c r="T145" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>60</v>
       </c>
@@ -9221,12 +10989,24 @@
       <c r="N146" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O146" s="1"/>
-      <c r="P146" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O146" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S146" s="1"/>
+      <c r="T146" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>60</v>
       </c>
@@ -9269,12 +11049,24 @@
       <c r="N147" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O147" s="1"/>
-      <c r="P147" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O147" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S147" s="1"/>
+      <c r="T147" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>60</v>
       </c>
@@ -9317,12 +11109,24 @@
       <c r="N148" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O148" s="1"/>
-      <c r="P148" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S148" s="1"/>
+      <c r="T148" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>60</v>
       </c>
@@ -9365,12 +11169,24 @@
       <c r="N149" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O149" s="1"/>
-      <c r="P149" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S149" s="1"/>
+      <c r="T149" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>60</v>
       </c>
@@ -9413,12 +11229,24 @@
       <c r="N150" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O150" s="1"/>
-      <c r="P150" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O150" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S150" s="1"/>
+      <c r="T150" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>60</v>
       </c>
@@ -9461,12 +11289,24 @@
       <c r="N151" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O151" s="1"/>
-      <c r="P151" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R151" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S151" s="1"/>
+      <c r="T151" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>60</v>
       </c>
@@ -9509,12 +11349,24 @@
       <c r="N152" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O152" s="1"/>
-      <c r="P152" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O152" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S152" s="1"/>
+      <c r="T152" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>60</v>
       </c>
@@ -9557,12 +11409,24 @@
       <c r="N153" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O153" s="1"/>
-      <c r="P153" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O153" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S153" s="1"/>
+      <c r="T153" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>60</v>
       </c>
@@ -9605,12 +11469,24 @@
       <c r="N154" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O154" s="1"/>
-      <c r="P154" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O154" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S154" s="1"/>
+      <c r="T154" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>60</v>
       </c>
@@ -9653,12 +11529,24 @@
       <c r="N155" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O155" s="1"/>
-      <c r="P155" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S155" s="1"/>
+      <c r="T155" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>60</v>
       </c>
@@ -9701,12 +11589,24 @@
       <c r="N156" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O156" s="1"/>
-      <c r="P156" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S156" s="1"/>
+      <c r="T156" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>60</v>
       </c>
@@ -9749,12 +11649,24 @@
       <c r="N157" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O157" s="1"/>
-      <c r="P157" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O157" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S157" s="1"/>
+      <c r="T157" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>60</v>
       </c>
@@ -9797,12 +11709,24 @@
       <c r="N158" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O158" s="1"/>
-      <c r="P158" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S158" s="1"/>
+      <c r="T158" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>60</v>
       </c>
@@ -9845,12 +11769,24 @@
       <c r="N159" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O159" s="1"/>
-      <c r="P159" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O159" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S159" s="1"/>
+      <c r="T159" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>60</v>
       </c>
@@ -9893,12 +11829,24 @@
       <c r="N160" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O160" s="1"/>
-      <c r="P160" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O160" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S160" s="1"/>
+      <c r="T160" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>60</v>
       </c>
@@ -9941,12 +11889,24 @@
       <c r="N161" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O161" s="1"/>
-      <c r="P161" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S161" s="1"/>
+      <c r="T161" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>60</v>
       </c>
@@ -9989,12 +11949,24 @@
       <c r="N162" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O162" s="1"/>
-      <c r="P162" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O162" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S162" s="1"/>
+      <c r="T162" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>60</v>
       </c>
@@ -10037,12 +12009,24 @@
       <c r="N163" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O163" s="1"/>
-      <c r="P163" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O163" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S163" s="1"/>
+      <c r="T163" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>60</v>
       </c>
@@ -10085,12 +12069,24 @@
       <c r="N164" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O164" s="1"/>
-      <c r="P164" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O164" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S164" s="1"/>
+      <c r="T164" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>60</v>
       </c>
@@ -10133,12 +12129,24 @@
       <c r="N165" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O165" s="1"/>
-      <c r="P165" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O165" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S165" s="1"/>
+      <c r="T165" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>60</v>
       </c>
@@ -10181,12 +12189,24 @@
       <c r="N166" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O166" s="1"/>
-      <c r="P166" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O166" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S166" s="1"/>
+      <c r="T166" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>60</v>
       </c>
@@ -10229,12 +12249,24 @@
       <c r="N167" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O167" s="1"/>
-      <c r="P167" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O167" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S167" s="1"/>
+      <c r="T167" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>60</v>
       </c>
@@ -10277,12 +12309,24 @@
       <c r="N168" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O168" s="1"/>
-      <c r="P168" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O168" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S168" s="1"/>
+      <c r="T168" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>60</v>
       </c>
@@ -10325,12 +12369,24 @@
       <c r="N169" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O169" s="1"/>
-      <c r="P169" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="O169" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S169" s="1"/>
+      <c r="T169" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>60</v>
       </c>
@@ -10373,12 +12429,24 @@
       <c r="N170" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="O170" s="1"/>
-      <c r="P170" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="360" x14ac:dyDescent="0.25">
+      <c r="O170" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S170" s="1"/>
+      <c r="T170" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" ht="360" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>60</v>
       </c>
@@ -10422,13 +12490,25 @@
         <v>396</v>
       </c>
       <c r="O171" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S171" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P171" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="375" x14ac:dyDescent="0.25">
+      <c r="T171" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" ht="375" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>60</v>
       </c>
@@ -10472,13 +12552,25 @@
         <v>396</v>
       </c>
       <c r="O172" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S172" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="P172" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="T172" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>60</v>
       </c>
@@ -10522,13 +12614,25 @@
         <v>396</v>
       </c>
       <c r="O173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S173" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="P173" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T173" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>60</v>
       </c>
@@ -10572,13 +12676,25 @@
         <v>396</v>
       </c>
       <c r="O174" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S174" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P174" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="165" x14ac:dyDescent="0.25">
+      <c r="T174" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" ht="165" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>60</v>
       </c>
@@ -10622,13 +12738,25 @@
         <v>396</v>
       </c>
       <c r="O175" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S175" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="P175" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="T175" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" ht="195" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>60</v>
       </c>
@@ -10672,13 +12800,25 @@
         <v>396</v>
       </c>
       <c r="O176" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S176" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="P176" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+      <c r="T176" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>60</v>
       </c>
@@ -10722,13 +12862,25 @@
         <v>396</v>
       </c>
       <c r="O177" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S177" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="P177" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="T177" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>60</v>
       </c>
@@ -10772,13 +12924,25 @@
         <v>396</v>
       </c>
       <c r="O178" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S178" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="P178" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T178" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>60</v>
       </c>
@@ -10822,13 +12986,25 @@
         <v>396</v>
       </c>
       <c r="O179" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S179" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="P179" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="T179" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>60</v>
       </c>
@@ -10872,13 +13048,25 @@
         <v>396</v>
       </c>
       <c r="O180" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S180" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="P180" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="T180" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>60</v>
       </c>
@@ -10922,13 +13110,25 @@
         <v>396</v>
       </c>
       <c r="O181" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S181" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P181" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T181" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>60</v>
       </c>
@@ -10972,13 +13172,25 @@
         <v>396</v>
       </c>
       <c r="O182" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S182" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="P182" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="T182" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" ht="210" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>60</v>
       </c>
@@ -11022,13 +13234,25 @@
         <v>396</v>
       </c>
       <c r="O183" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S183" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="P183" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="T183" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>60</v>
       </c>
@@ -11072,13 +13296,25 @@
         <v>396</v>
       </c>
       <c r="O184" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S184" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="P184" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="T184" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>60</v>
       </c>
@@ -11122,13 +13358,25 @@
         <v>396</v>
       </c>
       <c r="O185" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S185" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="P185" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" ht="300" x14ac:dyDescent="0.25">
+      <c r="T185" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="300" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>60</v>
       </c>
@@ -11172,13 +13420,25 @@
         <v>396</v>
       </c>
       <c r="O186" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S186" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="P186" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T186" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>60</v>
       </c>
@@ -11222,13 +13482,25 @@
         <v>396</v>
       </c>
       <c r="O187" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S187" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P187" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="T187" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>60</v>
       </c>
@@ -11272,13 +13544,25 @@
         <v>396</v>
       </c>
       <c r="O188" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S188" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="P188" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="T188" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>60</v>
       </c>
@@ -11322,13 +13606,25 @@
         <v>396</v>
       </c>
       <c r="O189" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S189" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="P189" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" ht="330" x14ac:dyDescent="0.25">
+      <c r="T189" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" ht="330" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>60</v>
       </c>
@@ -11372,13 +13668,25 @@
         <v>396</v>
       </c>
       <c r="O190" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S190" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="P190" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T190" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>60</v>
       </c>
@@ -11422,13 +13730,25 @@
         <v>396</v>
       </c>
       <c r="O191" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S191" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P191" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="T191" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>60</v>
       </c>
@@ -11472,13 +13792,25 @@
         <v>396</v>
       </c>
       <c r="O192" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S192" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="P192" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" ht="330" x14ac:dyDescent="0.25">
+      <c r="T192" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" ht="330" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>60</v>
       </c>
@@ -11522,19 +13854,31 @@
         <v>396</v>
       </c>
       <c r="O193" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S193" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="P193" s="2">
+      <c r="T193" s="2">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P193" xr:uid="{2DC3D63A-E36A-4837-B363-E9FAB7F1B851}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P193">
-      <sortCondition ref="O2"/>
+  <autoFilter ref="A1:T193" xr:uid="{2DC3D63A-E36A-4837-B363-E9FAB7F1B851}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T193">
+      <sortCondition ref="S2"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:O193">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:S193">
     <sortCondition ref="N2"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -11543,14 +13887,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -11773,6 +14109,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11783,16 +14127,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD49AF4E-97CA-4E5D-BBDF-E508EB1841A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E630C785-9733-4E59-9D07-95F1F4A7950F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11811,6 +14145,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD49AF4E-97CA-4E5D-BBDF-E508EB1841A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC9B291-8724-4472-BF66-1344F4601067}">
   <ds:schemaRefs>
